--- a/Reading_List_further_screening.xlsx
+++ b/Reading_List_further_screening.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="16040" yWindow="460" windowWidth="17560" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$O$1:$O$230</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="612">
   <si>
     <t>Study (R / Q)</t>
   </si>
@@ -716,9 +716,6 @@
     <t>Robert M Stelmack</t>
   </si>
   <si>
-    <t>University of Ottawa, Canada</t>
-  </si>
-  <si>
     <t>Attention, learning disability  subtypes and  the naming of pictures and words</t>
   </si>
   <si>
@@ -1863,12 +1860,45 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>University of Windsor</t>
+  </si>
+  <si>
+    <t>University of Ottawa</t>
+  </si>
+  <si>
+    <t>EThOS ID: uk.bl.ethos.492824</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>microform</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>$31.00</t>
+  </si>
+  <si>
+    <t>interlibrary loan</t>
+  </si>
+  <si>
+    <t>book?</t>
+  </si>
+  <si>
+    <t>journal of speech languge and hearing research Feb 2010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1894,7 +1924,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1913,6 +1943,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1926,7 +1962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1940,7 +1976,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1948,6 +1983,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2225,17 +2278,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q193" sqref="Q193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="46.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" hidden="1" customWidth="1"/>
@@ -2244,16 +2299,18 @@
     <col min="9" max="9" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
-    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.83203125" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="21.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.1640625" customWidth="1"/>
+    <col min="19" max="19" width="19" style="10" customWidth="1"/>
+    <col min="20" max="20" width="8" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -2296,17 +2353,17 @@
       <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="R1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="10" t="s">
         <v>48</v>
       </c>
       <c r="T1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="U1" t="s">
         <v>85</v>
@@ -2314,16 +2371,19 @@
       <c r="V1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="16" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" t="s">
         <v>539</v>
-      </c>
-      <c r="C2" t="s">
-        <v>540</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2334,13 +2394,17 @@
       <c r="N2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -2354,8 +2418,12 @@
       <c r="N3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2383,23 +2451,27 @@
       <c r="P4" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="R4" t="s">
         <v>174</v>
       </c>
-      <c r="S4" t="s">
-        <v>175</v>
+      <c r="S4" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="T4" t="s">
+        <v>597</v>
       </c>
       <c r="U4">
         <v>2016</v>
       </c>
       <c r="W4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2424,17 +2496,17 @@
       <c r="P5" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>149</v>
       </c>
       <c r="R5" t="s">
         <v>150</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="10" t="s">
         <v>151</v>
       </c>
       <c r="T5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U5">
         <v>2009</v>
@@ -2442,8 +2514,9 @@
       <c r="V5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -2451,10 +2524,10 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -2462,8 +2535,12 @@
       <c r="N6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -2471,40 +2548,41 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>351</v>
       </c>
-      <c r="R7" t="s">
-        <v>352</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="S7" s="10" t="s">
         <v>145</v>
       </c>
       <c r="T7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U7">
         <v>1997</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2514,55 +2592,68 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="D8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" s="1"/>
       <c r="L8" t="s">
         <v>18</v>
       </c>
+      <c r="M8"/>
       <c r="N8" t="s">
         <v>6</v>
       </c>
-      <c r="O8" t="s">
-        <v>18</v>
+      <c r="O8" s="12" t="s">
+        <v>607</v>
       </c>
       <c r="P8" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="S8" t="s">
-        <v>231</v>
-      </c>
-      <c r="T8" t="s">
-        <v>599</v>
-      </c>
-      <c r="U8">
+      <c r="T8" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U8" s="12">
         <v>1986</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="X8" s="12" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C9" t="s">
+        <v>574</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="L9" t="s">
         <v>80</v>
       </c>
       <c r="N9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2581,46 +2672,56 @@
       <c r="N10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>491</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" s="1"/>
       <c r="L11" t="s">
         <v>80</v>
       </c>
+      <c r="M11"/>
       <c r="N11" t="s">
         <v>72</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P11" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" t="s">
-        <v>492</v>
-      </c>
-      <c r="S11" t="s">
-        <v>435</v>
-      </c>
-      <c r="T11" t="s">
-        <v>599</v>
-      </c>
-      <c r="U11">
+      <c r="Q11" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U11" s="12">
         <v>1981</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2628,7 +2729,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>8</v>
@@ -2636,93 +2737,110 @@
       <c r="L12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="L13" t="s">
         <v>18</v>
       </c>
+      <c r="M13"/>
       <c r="N13" t="s">
         <v>6</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P13" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="R13" t="s">
         <v>267</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="S13" t="s">
-        <v>269</v>
-      </c>
-      <c r="T13" t="s">
-        <v>600</v>
-      </c>
-      <c r="U13">
+      <c r="T13" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="U13" s="12">
         <v>2003</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="13" t="s">
         <v>134</v>
       </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" s="1"/>
       <c r="L14" t="s">
         <v>18</v>
       </c>
+      <c r="M14"/>
       <c r="N14" t="s">
         <v>6</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P14" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S14" t="s">
+      <c r="R14"/>
+      <c r="S14" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="T14" t="s">
-        <v>599</v>
-      </c>
-      <c r="U14">
+      <c r="T14" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U14" s="12">
         <v>1986</v>
       </c>
-      <c r="V14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="V14" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2753,13 +2871,13 @@
       <c r="P15" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>88</v>
       </c>
       <c r="R15" t="s">
         <v>91</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="10" t="s">
         <v>92</v>
       </c>
       <c r="U15">
@@ -2768,8 +2886,9 @@
       <c r="V15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>24</v>
       </c>
@@ -2777,53 +2896,55 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="L16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>104</v>
+      </c>
+      <c r="U16" t="s">
         <v>521</v>
       </c>
-      <c r="L16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" t="s">
-        <v>104</v>
-      </c>
-      <c r="U16" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="L17" t="s">
         <v>80</v>
       </c>
       <c r="N17" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
@@ -2831,96 +2952,112 @@
       <c r="N18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="D19" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
       <c r="K19" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L19" t="s">
         <v>18</v>
       </c>
+      <c r="M19"/>
       <c r="N19" t="s">
         <v>6</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P19" t="s">
         <v>6</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="R19" t="s">
         <v>255</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="S19" t="s">
-        <v>257</v>
-      </c>
-      <c r="T19" t="s">
-        <v>599</v>
-      </c>
-      <c r="U19">
+      <c r="T19" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U19" s="12">
         <v>2007</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="13" t="s">
         <v>120</v>
       </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" s="1"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
+      <c r="M20"/>
       <c r="N20" t="s">
         <v>6</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P20" t="s">
         <v>6</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="13" t="s">
         <v>117</v>
       </c>
       <c r="R20" t="s">
         <v>118</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="T20" t="s">
-        <v>599</v>
-      </c>
-      <c r="U20">
+      <c r="T20" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U20" s="12">
         <v>2003</v>
       </c>
-      <c r="V20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V20" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
@@ -2928,10 +3065,10 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L21" t="s">
         <v>80</v>
@@ -2940,26 +3077,27 @@
         <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P21" t="s">
         <v>72</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="1" t="s">
         <v>185</v>
       </c>
       <c r="R21" t="s">
         <v>174</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="10" t="s">
         <v>175</v>
       </c>
       <c r="T21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U21">
         <v>2013</v>
       </c>
+      <c r="X21"/>
     </row>
     <row r="22" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -2969,10 +3107,10 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L22" t="s">
         <v>80</v>
@@ -2981,71 +3119,74 @@
         <v>72</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P22" t="s">
         <v>72</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R22" t="s">
         <v>365</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="S22" t="s">
-        <v>367</v>
-      </c>
       <c r="T22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U22">
         <v>2012</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C23" t="s">
+        <v>540</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="L23" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" t="s">
         <v>542</v>
       </c>
-      <c r="L23" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="Q23" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>544</v>
       </c>
       <c r="U23">
         <v>2012</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3065,189 +3206,216 @@
         <v>6</v>
       </c>
       <c r="O25" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P25" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="1" t="s">
         <v>210</v>
       </c>
       <c r="R25" t="s">
         <v>211</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" s="10" t="s">
         <v>212</v>
       </c>
       <c r="T25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U25">
         <v>2003</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>448</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>470</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26" s="1"/>
       <c r="L26" t="s">
         <v>80</v>
       </c>
+      <c r="M26"/>
       <c r="N26" t="s">
         <v>72</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P26" t="s">
         <v>72</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="R26" t="s">
         <v>471</v>
       </c>
-      <c r="R26" t="s">
-        <v>472</v>
-      </c>
-      <c r="S26" t="s">
-        <v>224</v>
-      </c>
-      <c r="T26" t="s">
-        <v>599</v>
-      </c>
-      <c r="U26">
+      <c r="S26" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U26" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>448</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>509</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" s="1"/>
       <c r="L27" t="s">
         <v>80</v>
       </c>
+      <c r="M27"/>
       <c r="N27" t="s">
         <v>72</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P27" t="s">
         <v>72</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="R27"/>
+      <c r="S27" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="S27" t="s">
-        <v>511</v>
-      </c>
-      <c r="T27" t="s">
-        <v>599</v>
-      </c>
-      <c r="U27">
+      <c r="T27" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U27" s="12">
         <v>1980</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="13" t="s">
         <v>203</v>
       </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28" s="1"/>
       <c r="L28" t="s">
         <v>18</v>
       </c>
+      <c r="M28"/>
       <c r="N28" t="s">
         <v>6</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P28" t="s">
         <v>6</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="13" t="s">
         <v>200</v>
       </c>
       <c r="R28" t="s">
         <v>201</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="T28" t="s">
-        <v>599</v>
-      </c>
-      <c r="U28">
+      <c r="T28" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U28" s="12">
         <v>2007</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>14</v>
       </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>374</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="B29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="L29" t="s">
-        <v>80</v>
-      </c>
-      <c r="N29" t="s">
-        <v>72</v>
-      </c>
-      <c r="O29" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="R29" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="R29" t="s">
-        <v>404</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="S29" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="T29" t="s">
-        <v>598</v>
-      </c>
-      <c r="U29">
+      <c r="T29" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="U29" s="12">
         <v>2003</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="3" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3256,7 +3424,7 @@
       </c>
       <c r="C30"/>
       <c r="D30" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -3271,19 +3439,23 @@
         <v>18</v>
       </c>
       <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
+      <c r="N30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
       <c r="P30"/>
-      <c r="Q30"/>
+      <c r="Q30" s="1"/>
       <c r="R30"/>
-      <c r="S30"/>
+      <c r="S30" s="10"/>
       <c r="T30"/>
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3294,7 +3466,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s">
         <v>18</v>
@@ -3303,28 +3475,29 @@
         <v>6</v>
       </c>
       <c r="O31" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P31" t="s">
         <v>6</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="1" t="s">
         <v>218</v>
       </c>
       <c r="R31" t="s">
         <v>219</v>
       </c>
-      <c r="S31" t="s">
-        <v>220</v>
+      <c r="S31" s="10" t="s">
+        <v>603</v>
       </c>
       <c r="T31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U31">
         <v>1999</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:24" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -3332,10 +3505,10 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -3353,16 +3526,16 @@
       </c>
       <c r="O32"/>
       <c r="P32"/>
-      <c r="Q32"/>
+      <c r="Q32" s="1"/>
       <c r="R32"/>
-      <c r="S32"/>
+      <c r="S32" s="10"/>
       <c r="T32"/>
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3387,13 +3560,13 @@
       <c r="P33" t="s">
         <v>6</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="1" t="s">
         <v>109</v>
       </c>
       <c r="R33" t="s">
         <v>110</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="10" t="s">
         <v>111</v>
       </c>
       <c r="U33">
@@ -3402,8 +3575,9 @@
       <c r="V33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="1:24" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>23</v>
       </c>
@@ -3411,10 +3585,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L34" t="s">
         <v>80</v>
@@ -3422,49 +3596,58 @@
       <c r="N34" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>448</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>505</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35" s="1"/>
       <c r="L35" t="s">
         <v>80</v>
       </c>
+      <c r="M35"/>
       <c r="N35" t="s">
         <v>72</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P35" t="s">
         <v>72</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="R35" t="s">
         <v>506</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="S35" t="s">
-        <v>508</v>
-      </c>
-      <c r="T35" t="s">
-        <v>599</v>
-      </c>
-      <c r="U35">
+      <c r="T35" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U35" s="12">
         <v>1999</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>13</v>
       </c>
@@ -3472,10 +3655,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L36" t="s">
         <v>80</v>
@@ -3484,63 +3667,72 @@
         <v>72</v>
       </c>
       <c r="O36" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P36" t="s">
         <v>104</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S36" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="S36" t="s">
-        <v>382</v>
-      </c>
       <c r="T36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U36">
         <v>2006</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>448</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>487</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37" s="1"/>
       <c r="L37" t="s">
         <v>80</v>
       </c>
+      <c r="M37"/>
       <c r="N37" t="s">
         <v>72</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P37" t="s">
         <v>72</v>
       </c>
-      <c r="Q37" t="s">
-        <v>488</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="Q37" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="R37"/>
+      <c r="S37" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T37" t="s">
-        <v>599</v>
-      </c>
-      <c r="U37">
+      <c r="T37" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U37" s="12">
         <v>1991</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="29" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3550,7 +3742,7 @@
       <c r="C38" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J38" t="s">
@@ -3563,28 +3755,29 @@
         <v>18</v>
       </c>
       <c r="O38" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P38" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q38" s="15" t="s">
         <v>44</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S38" s="10" t="s">
         <v>43</v>
       </c>
       <c r="T38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X38"/>
+    </row>
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -3592,10 +3785,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s">
         <v>80</v>
@@ -3603,8 +3796,9 @@
       <c r="N39" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="X39"/>
+    </row>
+    <row r="40" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3612,10 +3806,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s">
         <v>18</v>
@@ -3624,28 +3818,29 @@
         <v>6</v>
       </c>
       <c r="O40" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P40" t="s">
         <v>6</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="R40" t="s">
         <v>308</v>
       </c>
-      <c r="R40" t="s">
-        <v>309</v>
-      </c>
-      <c r="S40" t="s">
-        <v>287</v>
+      <c r="S40" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="T40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U40">
         <v>2010</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X40"/>
+    </row>
+    <row r="41" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>13</v>
       </c>
@@ -3653,19 +3848,20 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41" t="s">
         <v>378</v>
       </c>
-      <c r="L41" t="s">
-        <v>80</v>
-      </c>
-      <c r="N41" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X41"/>
+    </row>
+    <row r="42" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3685,22 +3881,22 @@
         <v>6</v>
       </c>
       <c r="O42" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P42" t="s">
         <v>6</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="1" t="s">
         <v>163</v>
       </c>
       <c r="R42" t="s">
         <v>164</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S42" s="10" t="s">
         <v>165</v>
       </c>
       <c r="T42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U42">
         <v>2000</v>
@@ -3708,8 +3904,9 @@
       <c r="V42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="X42"/>
+    </row>
+    <row r="43" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3717,7 +3914,7 @@
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>31</v>
@@ -3725,19 +3922,20 @@
       <c r="L43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X43"/>
+    </row>
+    <row r="44" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C44" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L44" t="s">
         <v>80</v>
@@ -3745,8 +3943,9 @@
       <c r="N44" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X44"/>
+    </row>
+    <row r="45" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10</v>
       </c>
@@ -3754,10 +3953,10 @@
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s">
         <v>18</v>
@@ -3765,75 +3964,83 @@
       <c r="N45" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X45"/>
+    </row>
+    <row r="46" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>254</v>
-      </c>
+      <c r="D46" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
       <c r="K46" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L46" t="s">
         <v>80</v>
       </c>
       <c r="M46" t="s">
+        <v>249</v>
+      </c>
+      <c r="N46" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P46" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="N46" t="s">
-        <v>6</v>
-      </c>
-      <c r="O46" t="s">
-        <v>18</v>
-      </c>
-      <c r="P46" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>251</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="S46" t="s">
-        <v>253</v>
-      </c>
-      <c r="T46" t="s">
-        <v>599</v>
-      </c>
-      <c r="U46">
+      <c r="T46" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U46" s="12">
         <v>2009</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C47" t="s">
+        <v>572</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="L47" t="s">
         <v>80</v>
       </c>
       <c r="N47" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X47"/>
+    </row>
+    <row r="48" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10</v>
       </c>
@@ -3841,10 +4048,10 @@
         <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s">
         <v>18</v>
@@ -3852,49 +4059,58 @@
       <c r="N48" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="X48"/>
+    </row>
+    <row r="49" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>448</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>530</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49" s="1"/>
       <c r="L49" t="s">
         <v>80</v>
       </c>
+      <c r="M49"/>
       <c r="N49" t="s">
         <v>72</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P49" t="s">
         <v>72</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="Q49" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="R49" t="s">
         <v>531</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="S49" t="s">
-        <v>533</v>
-      </c>
-      <c r="T49" t="s">
-        <v>599</v>
-      </c>
-      <c r="U49">
+      <c r="T49" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U49" s="12">
         <v>2001</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>13</v>
       </c>
@@ -3902,22 +4118,23 @@
         <v>38</v>
       </c>
       <c r="C50" t="s">
+        <v>373</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="L50" t="s">
+        <v>80</v>
+      </c>
+      <c r="N50" t="s">
         <v>375</v>
       </c>
-      <c r="L50" t="s">
-        <v>80</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="U50" t="s">
         <v>376</v>
       </c>
-      <c r="U50" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X50"/>
+    </row>
+    <row r="51" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3925,10 +4142,10 @@
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L51" t="s">
         <v>18</v>
@@ -3936,8 +4153,9 @@
       <c r="N51" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X51"/>
+    </row>
+    <row r="52" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -3956,8 +4174,9 @@
       <c r="N52" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X52"/>
+    </row>
+    <row r="53" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3982,14 +4201,17 @@
       <c r="P53" t="s">
         <v>6</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="Q53" s="1" t="s">
         <v>143</v>
       </c>
       <c r="R53" t="s">
         <v>144</v>
       </c>
-      <c r="S53" t="s">
+      <c r="S53" s="10" t="s">
         <v>145</v>
+      </c>
+      <c r="T53" t="s">
+        <v>597</v>
       </c>
       <c r="U53">
         <v>2013</v>
@@ -3997,8 +4219,9 @@
       <c r="V53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="X53"/>
+    </row>
+    <row r="54" spans="1:24" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -4006,7 +4229,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>26</v>
@@ -4014,8 +4237,9 @@
       <c r="L54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="80" x14ac:dyDescent="0.2">
+      <c r="X54"/>
+    </row>
+    <row r="55" spans="1:24" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>15</v>
       </c>
@@ -4023,33 +4247,34 @@
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="L55" t="s">
+        <v>80</v>
+      </c>
+      <c r="N55" t="s">
         <v>417</v>
       </c>
-      <c r="L55" t="s">
-        <v>80</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="U55" t="s">
         <v>418</v>
       </c>
-      <c r="U55" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="X55"/>
+    </row>
+    <row r="56" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L56" t="s">
         <v>80</v>
@@ -4057,8 +4282,9 @@
       <c r="N56" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X56"/>
+    </row>
+    <row r="57" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>24</v>
       </c>
@@ -4066,10 +4292,10 @@
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L57" t="s">
         <v>80</v>
@@ -4078,28 +4304,29 @@
         <v>72</v>
       </c>
       <c r="O57" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P57" t="s">
         <v>72</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="Q57" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="R57" t="s">
         <v>527</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="S57" t="s">
-        <v>529</v>
-      </c>
       <c r="T57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U57">
         <v>2001</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="X57"/>
+    </row>
+    <row r="58" spans="1:24" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -4107,7 +4334,7 @@
         <v>37</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G58" t="s">
         <v>33</v>
@@ -4118,49 +4345,51 @@
       <c r="L58" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="X58"/>
+    </row>
+    <row r="59" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
         <v>13</v>
       </c>
-      <c r="B59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" t="s">
-        <v>374</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="B59" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="K59" s="13"/>
+      <c r="L59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P59" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q59" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="L59" t="s">
-        <v>80</v>
-      </c>
-      <c r="N59" t="s">
-        <v>72</v>
-      </c>
-      <c r="O59" t="s">
-        <v>80</v>
-      </c>
-      <c r="P59" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q59" t="s">
+      <c r="R59" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="S59" t="s">
-        <v>393</v>
-      </c>
-      <c r="T59" t="s">
-        <v>598</v>
-      </c>
-      <c r="U59">
+      <c r="T59" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="U59" s="12">
         <v>1993</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -4168,7 +4397,7 @@
         <v>37</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>24</v>
@@ -4176,8 +4405,9 @@
       <c r="L60" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X60"/>
+    </row>
+    <row r="61" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10</v>
       </c>
@@ -4185,10 +4415,10 @@
         <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L61" t="s">
         <v>18</v>
@@ -4197,25 +4427,25 @@
         <v>6</v>
       </c>
       <c r="O61" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P61" t="s">
         <v>15</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="Q61" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="S61" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="S61" t="s">
-        <v>342</v>
-      </c>
       <c r="T61" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U61">
         <v>2006</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4234,31 +4464,33 @@
       <c r="N62" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X62"/>
+    </row>
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C63" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="L63" t="s">
+        <v>80</v>
+      </c>
+      <c r="N63" t="s">
         <v>547</v>
       </c>
-      <c r="L63" t="s">
-        <v>80</v>
-      </c>
-      <c r="N63" t="s">
-        <v>548</v>
-      </c>
-      <c r="U63" s="9">
+      <c r="U63" s="8">
         <v>42621</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X63"/>
+    </row>
+    <row r="64" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8</v>
       </c>
@@ -4266,60 +4498,64 @@
         <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L64" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L64" t="s">
-        <v>18</v>
-      </c>
-      <c r="N64" t="s">
-        <v>6</v>
-      </c>
-      <c r="O64" t="s">
-        <v>18</v>
-      </c>
-      <c r="P64" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>304</v>
       </c>
-      <c r="R64" t="s">
-        <v>305</v>
-      </c>
-      <c r="S64" t="s">
+      <c r="S64" s="10" t="s">
         <v>76</v>
       </c>
       <c r="T64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U64">
         <v>2012</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="X64"/>
+    </row>
+    <row r="65" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C65" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>549</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="K65" s="1"/>
       <c r="L65" t="s">
         <v>80</v>
       </c>
       <c r="N65" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q65" s="1"/>
+      <c r="S65" s="10"/>
+    </row>
+    <row r="66" spans="1:23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5</v>
       </c>
@@ -4330,7 +4566,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>12</v>
@@ -4342,28 +4578,28 @@
         <v>6</v>
       </c>
       <c r="O66" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P66" t="s">
         <v>6</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="Q66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R66" t="s">
         <v>241</v>
       </c>
-      <c r="R66" t="s">
-        <v>242</v>
-      </c>
-      <c r="S66" t="s">
+      <c r="S66" s="10" t="s">
         <v>62</v>
       </c>
       <c r="T66" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U66">
         <v>1997</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -4392,22 +4628,22 @@
         <v>18</v>
       </c>
       <c r="O67" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P67" t="s">
         <v>6</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="Q67" s="1" t="s">
         <v>50</v>
       </c>
       <c r="R67" t="s">
         <v>51</v>
       </c>
-      <c r="S67" t="s">
+      <c r="S67" s="10" t="s">
         <v>52</v>
       </c>
       <c r="T67" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V67" t="s">
         <v>18</v>
@@ -4416,7 +4652,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>23</v>
       </c>
@@ -4424,148 +4660,176 @@
         <v>38</v>
       </c>
       <c r="C68" t="s">
+        <v>447</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" t="s">
+        <v>80</v>
+      </c>
+      <c r="N68" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q68" s="1"/>
+      <c r="S68" s="10"/>
+      <c r="U68" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>18</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s">
+        <v>447</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="L68" t="s">
-        <v>80</v>
-      </c>
-      <c r="N68" t="s">
-        <v>497</v>
-      </c>
-      <c r="U68" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="48" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>18</v>
-      </c>
-      <c r="B69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" t="s">
-        <v>448</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>449</v>
-      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69" s="1"/>
       <c r="L69" t="s">
         <v>80</v>
       </c>
-      <c r="O69" t="s">
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P69" t="s">
         <v>72</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="Q69" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="R69" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="S69" t="s">
-        <v>452</v>
-      </c>
-      <c r="T69" t="s">
-        <v>599</v>
-      </c>
-      <c r="U69">
+      <c r="T69" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U69" s="12">
         <v>2014</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="13" t="s">
         <v>184</v>
       </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70" s="1"/>
       <c r="L70" t="s">
         <v>18</v>
       </c>
+      <c r="M70"/>
       <c r="N70" t="s">
         <v>6</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P70" t="s">
         <v>6</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="Q70" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="R70" t="s">
+      <c r="R70" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="S70" t="s">
+      <c r="S70" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="T70" t="s">
-        <v>599</v>
-      </c>
-      <c r="U70">
+      <c r="T70" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U70" s="12">
         <v>2013</v>
       </c>
-      <c r="V70" t="s">
-        <v>6</v>
-      </c>
-      <c r="W70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="V70" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W70" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>292</v>
-      </c>
-      <c r="D71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71" s="1"/>
+      <c r="L71" t="s">
+        <v>80</v>
+      </c>
+      <c r="M71"/>
+      <c r="N71" t="s">
+        <v>6</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q71" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="L71" t="s">
-        <v>80</v>
-      </c>
-      <c r="N71" t="s">
-        <v>6</v>
-      </c>
-      <c r="O71" t="s">
-        <v>18</v>
-      </c>
-      <c r="P71" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q71" t="s">
+      <c r="R71" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="S71" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="R71" t="s">
-        <v>122</v>
-      </c>
-      <c r="S71" t="s">
-        <v>338</v>
-      </c>
-      <c r="T71" t="s">
-        <v>599</v>
-      </c>
-      <c r="U71">
+      <c r="T71" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U71" s="12">
         <v>2006</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10</v>
       </c>
@@ -4573,19 +4837,22 @@
         <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>334</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="K72" s="1"/>
       <c r="L72" t="s">
         <v>18</v>
       </c>
       <c r="N72" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q72" s="1"/>
+      <c r="S72" s="10"/>
+    </row>
+    <row r="73" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8</v>
       </c>
@@ -4593,84 +4860,93 @@
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>298</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="K73" s="1"/>
       <c r="L73" t="s">
         <v>18</v>
       </c>
       <c r="M73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N73" t="s">
         <v>6</v>
       </c>
       <c r="O73" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P73" t="s">
         <v>6</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="Q73" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="R73" t="s">
         <v>295</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="S73" t="s">
-        <v>297</v>
-      </c>
       <c r="T73" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U73">
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="13" t="s">
         <v>169</v>
       </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74" s="1"/>
       <c r="L74" t="s">
         <v>18</v>
       </c>
+      <c r="M74"/>
       <c r="N74" t="s">
         <v>6</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P74" t="s">
         <v>6</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="Q74" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="S74" t="s">
+      <c r="S74" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="T74" t="s">
-        <v>599</v>
-      </c>
-      <c r="U74">
+      <c r="T74" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U74" s="12">
         <v>1996</v>
       </c>
-      <c r="V74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="V74" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8</v>
       </c>
@@ -4678,19 +4954,22 @@
         <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>315</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="K75" s="1"/>
       <c r="L75" t="s">
         <v>18</v>
       </c>
       <c r="N75" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q75" s="1"/>
+      <c r="S75" s="10"/>
+    </row>
+    <row r="76" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9</v>
       </c>
@@ -4698,19 +4977,22 @@
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="K76" s="1"/>
       <c r="L76" t="s">
         <v>18</v>
       </c>
       <c r="N76" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q76" s="1"/>
+      <c r="S76" s="10"/>
+    </row>
+    <row r="77" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>24</v>
       </c>
@@ -4718,16 +5000,19 @@
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>515</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="K77" s="1"/>
       <c r="L77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q77" s="1"/>
+      <c r="S77" s="10"/>
+    </row>
+    <row r="78" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -4735,7 +5020,7 @@
         <v>37</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>32</v>
@@ -4743,8 +5028,10 @@
       <c r="L78" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Q78" s="1"/>
+      <c r="S78" s="10"/>
+    </row>
+    <row r="79" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -4757,14 +5044,17 @@
       <c r="D79" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="K79" s="1"/>
       <c r="L79" t="s">
         <v>18</v>
       </c>
       <c r="N79" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q79" s="1"/>
+      <c r="S79" s="10"/>
+    </row>
+    <row r="80" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>12</v>
       </c>
@@ -4772,60 +5062,71 @@
         <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>358</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="K80" s="1"/>
       <c r="L80" t="s">
         <v>80</v>
       </c>
       <c r="N80" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q80" s="1"/>
+      <c r="S80" s="10"/>
+    </row>
+    <row r="81" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="13" t="s">
         <v>130</v>
       </c>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81" s="1"/>
       <c r="L81" t="s">
         <v>18</v>
       </c>
+      <c r="M81"/>
       <c r="N81" t="s">
         <v>6</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O81" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P81" t="s">
         <v>6</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="Q81" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="S81" t="s">
+      <c r="S81" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="T81" t="s">
-        <v>599</v>
-      </c>
-      <c r="U81">
+      <c r="T81" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U81" s="12">
         <v>1995</v>
       </c>
-      <c r="V81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="V81" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5</v>
       </c>
@@ -4836,7 +5137,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>12</v>
@@ -4847,8 +5148,9 @@
       <c r="N82" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X82"/>
+    </row>
+    <row r="83" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>21</v>
       </c>
@@ -4856,10 +5158,10 @@
         <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L83" t="s">
         <v>80</v>
@@ -4868,28 +5170,29 @@
         <v>72</v>
       </c>
       <c r="O83" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P83" t="s">
         <v>72</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="Q83" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R83" t="s">
         <v>474</v>
       </c>
-      <c r="R83" t="s">
-        <v>475</v>
-      </c>
-      <c r="S83" t="s">
-        <v>367</v>
+      <c r="S83" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="T83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U83">
         <v>1999</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X83"/>
+    </row>
+    <row r="84" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4</v>
       </c>
@@ -4908,8 +5211,9 @@
       <c r="N84" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="X84"/>
+    </row>
+    <row r="85" spans="1:24" s="12" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>12</v>
       </c>
@@ -4917,37 +5221,49 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>356</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>368</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85" s="1"/>
       <c r="L85" t="s">
         <v>80</v>
       </c>
-      <c r="N85" t="s">
+      <c r="M85"/>
+      <c r="N85" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O85" t="s">
-        <v>80</v>
+      <c r="O85" s="12" t="s">
+        <v>604</v>
       </c>
       <c r="P85" t="s">
         <v>72</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="Q85" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="R85"/>
+      <c r="S85" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="S85" t="s">
-        <v>370</v>
-      </c>
-      <c r="T85" t="s">
-        <v>601</v>
-      </c>
-      <c r="U85">
+      <c r="T85" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="U85" s="12">
         <v>2008</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X85" s="17">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -4966,8 +5282,9 @@
       <c r="N86" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="X86"/>
+    </row>
+    <row r="87" spans="1:24" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -4975,7 +5292,7 @@
         <v>37</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>19</v>
@@ -4983,8 +5300,9 @@
       <c r="L87" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X87"/>
+    </row>
+    <row r="88" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -5004,28 +5322,29 @@
         <v>6</v>
       </c>
       <c r="O88" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P88" t="s">
         <v>6</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="Q88" s="1" t="s">
         <v>190</v>
       </c>
       <c r="R88" t="s">
         <v>191</v>
       </c>
-      <c r="S88" t="s">
+      <c r="S88" s="10" t="s">
         <v>192</v>
       </c>
       <c r="T88" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U88">
         <v>2012</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X88"/>
+    </row>
+    <row r="89" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -5044,8 +5363,9 @@
       <c r="N89" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X89"/>
+    </row>
+    <row r="90" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8</v>
       </c>
@@ -5053,10 +5373,10 @@
         <v>38</v>
       </c>
       <c r="C90" t="s">
+        <v>291</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>35</v>
@@ -5067,8 +5387,9 @@
       <c r="N90" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X90"/>
+    </row>
+    <row r="91" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10</v>
       </c>
@@ -5076,10 +5397,10 @@
         <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L91" t="s">
         <v>18</v>
@@ -5087,19 +5408,20 @@
       <c r="N91" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="X91"/>
+    </row>
+    <row r="92" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C92" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L92" t="s">
         <v>80</v>
@@ -5107,8 +5429,9 @@
       <c r="N92" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="X92"/>
+    </row>
+    <row r="93" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>9</v>
       </c>
@@ -5116,10 +5439,10 @@
         <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L93" t="s">
         <v>18</v>
@@ -5127,28 +5450,30 @@
       <c r="N93" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="X93"/>
+    </row>
+    <row r="94" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C94" t="s">
+        <v>561</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="L94" t="s">
         <v>80</v>
       </c>
       <c r="N94" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="X94"/>
+    </row>
+    <row r="95" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>9</v>
       </c>
@@ -5156,10 +5481,10 @@
         <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L95" t="s">
         <v>18</v>
@@ -5167,25 +5492,27 @@
       <c r="N95" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="X95"/>
+    </row>
+    <row r="96" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>57</v>
       </c>
       <c r="B96" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L96" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="X96"/>
+    </row>
+    <row r="97" spans="1:22" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -5193,7 +5520,7 @@
         <v>37</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>35</v>
@@ -5201,52 +5528,62 @@
       <c r="L97" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q97" s="1"/>
+      <c r="S97" s="10"/>
+    </row>
+    <row r="98" spans="1:22" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="13" t="s">
         <v>127</v>
       </c>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98" s="1"/>
       <c r="L98" t="s">
         <v>18</v>
       </c>
+      <c r="M98"/>
       <c r="N98" t="s">
         <v>6</v>
       </c>
-      <c r="O98" t="s">
+      <c r="O98" s="12" t="s">
         <v>124</v>
       </c>
       <c r="P98" t="s">
         <v>6</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="Q98" s="13" t="s">
         <v>125</v>
       </c>
       <c r="R98" t="s">
         <v>126</v>
       </c>
-      <c r="S98" t="s">
+      <c r="S98" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="T98" t="s">
-        <v>599</v>
-      </c>
-      <c r="U98">
+      <c r="T98" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U98" s="12">
         <v>2000</v>
       </c>
-      <c r="V98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="V98" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3</v>
       </c>
@@ -5277,8 +5614,10 @@
       <c r="N99" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q99" s="1"/>
+      <c r="S99" s="10"/>
+    </row>
+    <row r="100" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>15</v>
       </c>
@@ -5286,86 +5625,99 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>406</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="K100" s="1"/>
       <c r="L100" t="s">
         <v>80</v>
       </c>
       <c r="N100" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q100" s="1"/>
+      <c r="S100" s="10"/>
+    </row>
+    <row r="101" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C101" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" t="s">
+        <v>80</v>
+      </c>
+      <c r="N101" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q101" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="L101" t="s">
-        <v>80</v>
-      </c>
-      <c r="N101" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q101" t="s">
+      <c r="S101" s="10"/>
+      <c r="U101" t="s">
         <v>551</v>
       </c>
-      <c r="U101" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:22" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>19</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>448</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>457</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102" s="1"/>
       <c r="L102" t="s">
         <v>80</v>
       </c>
+      <c r="M102"/>
       <c r="N102" t="s">
         <v>72</v>
       </c>
-      <c r="O102" t="s">
+      <c r="O102" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P102" t="s">
         <v>72</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="Q102" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="R102" t="s">
         <v>458</v>
       </c>
-      <c r="R102" t="s">
-        <v>459</v>
-      </c>
-      <c r="S102" t="s">
-        <v>347</v>
-      </c>
-      <c r="T102" t="s">
-        <v>599</v>
-      </c>
-      <c r="U102">
+      <c r="S102" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="T102" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U102" s="12">
         <v>1997</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4</v>
       </c>
@@ -5378,14 +5730,17 @@
       <c r="D103" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="K103" s="1"/>
       <c r="L103" t="s">
         <v>18</v>
       </c>
       <c r="N103" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q103" s="1"/>
+      <c r="S103" s="10"/>
+    </row>
+    <row r="104" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10</v>
       </c>
@@ -5393,19 +5748,22 @@
         <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>343</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="K104" s="1"/>
       <c r="L104" t="s">
         <v>80</v>
       </c>
       <c r="N104" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q104" s="1"/>
+      <c r="S104" s="10"/>
+    </row>
+    <row r="105" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>24</v>
       </c>
@@ -5413,19 +5771,22 @@
         <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>519</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="K105" s="1"/>
       <c r="L105" t="s">
         <v>80</v>
       </c>
       <c r="N105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q105" s="1"/>
+      <c r="S105" s="10"/>
+    </row>
+    <row r="106" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2</v>
       </c>
@@ -5447,8 +5808,10 @@
       <c r="N106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" ht="80" x14ac:dyDescent="0.2">
+      <c r="Q106" s="1"/>
+      <c r="S106" s="10"/>
+    </row>
+    <row r="107" spans="1:22" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
@@ -5456,7 +5819,7 @@
         <v>37</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>31</v>
@@ -5464,49 +5827,59 @@
       <c r="L107" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q107" s="1"/>
+      <c r="S107" s="10"/>
+    </row>
+    <row r="108" spans="1:22" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>20</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>448</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>463</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108" s="1"/>
       <c r="L108" t="s">
         <v>80</v>
       </c>
+      <c r="M108"/>
       <c r="N108" t="s">
         <v>72</v>
       </c>
-      <c r="O108" t="s">
+      <c r="O108" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P108" t="s">
         <v>72</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="Q108" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="R108" t="s">
         <v>464</v>
       </c>
-      <c r="R108" t="s">
-        <v>465</v>
-      </c>
-      <c r="S108" t="s">
-        <v>253</v>
-      </c>
-      <c r="T108" t="s">
-        <v>599</v>
-      </c>
-      <c r="U108">
+      <c r="S108" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="T108" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U108" s="12">
         <v>2012</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>8</v>
       </c>
@@ -5514,19 +5887,22 @@
         <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>294</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="K109" s="1"/>
       <c r="L109" t="s">
         <v>18</v>
       </c>
       <c r="N109" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q109" s="1"/>
+      <c r="S109" s="10"/>
+    </row>
+    <row r="110" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4</v>
       </c>
@@ -5539,6 +5915,7 @@
       <c r="D110" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="K110" s="1"/>
       <c r="L110" t="s">
         <v>18</v>
       </c>
@@ -5546,110 +5923,126 @@
         <v>6</v>
       </c>
       <c r="O110" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P110" t="s">
         <v>6</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="Q110" s="1" t="s">
         <v>207</v>
       </c>
       <c r="R110" t="s">
         <v>208</v>
       </c>
-      <c r="S110" t="s">
+      <c r="S110" s="10" t="s">
         <v>92</v>
       </c>
       <c r="T110" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U110">
         <v>2004</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>15</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>374</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>422</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111" s="1"/>
       <c r="L111" t="s">
         <v>80</v>
       </c>
+      <c r="M111"/>
       <c r="N111" t="s">
         <v>72</v>
       </c>
-      <c r="O111" t="s">
-        <v>80</v>
+      <c r="O111" s="12" t="s">
+        <v>611</v>
       </c>
       <c r="P111" t="s">
         <v>72</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="Q111" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="R111" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="R111" t="s">
+      <c r="S111" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="S111" t="s">
-        <v>425</v>
-      </c>
-      <c r="T111" t="s">
-        <v>599</v>
-      </c>
-      <c r="U111">
+      <c r="T111" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U111" s="12">
         <v>2007</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C112" t="s">
-        <v>292</v>
-      </c>
-      <c r="D112" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112" s="1"/>
+      <c r="L112" t="s">
+        <v>80</v>
+      </c>
+      <c r="M112"/>
+      <c r="N112" t="s">
+        <v>6</v>
+      </c>
+      <c r="O112" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P112" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q112" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="L112" t="s">
-        <v>80</v>
-      </c>
-      <c r="N112" t="s">
-        <v>6</v>
-      </c>
-      <c r="O112" t="s">
-        <v>18</v>
-      </c>
-      <c r="P112" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q112" t="s">
+      <c r="R112" t="s">
         <v>345</v>
       </c>
-      <c r="R112" t="s">
+      <c r="S112" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="S112" t="s">
-        <v>347</v>
-      </c>
-      <c r="T112" t="s">
-        <v>599</v>
-      </c>
-      <c r="U112">
+      <c r="T112" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U112" s="12">
         <v>2004</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>23</v>
       </c>
@@ -5657,19 +6050,22 @@
         <v>38</v>
       </c>
       <c r="C113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>504</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="K113" s="1"/>
       <c r="L113" t="s">
         <v>80</v>
       </c>
       <c r="N113" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q113" s="1"/>
+      <c r="S113" s="10"/>
+    </row>
+    <row r="114" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4</v>
       </c>
@@ -5682,14 +6078,17 @@
       <c r="D114" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="K114" s="1"/>
       <c r="L114" t="s">
         <v>18</v>
       </c>
       <c r="N114" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q114" s="1"/>
+      <c r="S114" s="10"/>
+    </row>
+    <row r="115" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>17</v>
       </c>
@@ -5700,16 +6099,19 @@
         <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>439</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="K115" s="1"/>
       <c r="L115" t="s">
         <v>80</v>
       </c>
       <c r="N115" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q115" s="1"/>
+      <c r="S115" s="10"/>
+    </row>
+    <row r="116" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4</v>
       </c>
@@ -5722,14 +6124,17 @@
       <c r="D116" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="K116" s="1"/>
       <c r="L116" t="s">
         <v>18</v>
       </c>
       <c r="N116" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q116" s="1"/>
+      <c r="S116" s="10"/>
+    </row>
+    <row r="117" spans="1:22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3</v>
       </c>
@@ -5742,6 +6147,7 @@
       <c r="D117" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="K117" s="1"/>
       <c r="L117" t="s">
         <v>18</v>
       </c>
@@ -5749,22 +6155,22 @@
         <v>6</v>
       </c>
       <c r="O117" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P117" t="s">
         <v>6</v>
       </c>
-      <c r="Q117" t="s">
+      <c r="Q117" s="1" t="s">
         <v>157</v>
       </c>
       <c r="R117" t="s">
         <v>158</v>
       </c>
-      <c r="S117" t="s">
+      <c r="S117" s="10" t="s">
         <v>67</v>
       </c>
       <c r="T117" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U117">
         <v>2006</v>
@@ -5773,27 +6179,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>48</v>
       </c>
       <c r="B118" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C118" t="s">
+        <v>564</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>566</v>
-      </c>
+      <c r="K118" s="1"/>
       <c r="L118" t="s">
         <v>80</v>
       </c>
       <c r="N118" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q118" s="1"/>
+      <c r="S118" s="10"/>
+    </row>
+    <row r="119" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>8</v>
       </c>
@@ -5801,19 +6210,22 @@
         <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K119" s="1"/>
       <c r="L119" t="s">
         <v>18</v>
       </c>
       <c r="N119" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q119" s="1"/>
+      <c r="S119" s="10"/>
+    </row>
+    <row r="120" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>14</v>
       </c>
@@ -5821,19 +6233,22 @@
         <v>38</v>
       </c>
       <c r="C120" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>395</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="K120" s="1"/>
       <c r="L120" t="s">
         <v>80</v>
       </c>
       <c r="N120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q120" s="1"/>
+      <c r="S120" s="10"/>
+    </row>
+    <row r="121" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -5844,10 +6259,10 @@
         <v>27</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L121" t="s">
         <v>18</v>
@@ -5856,66 +6271,74 @@
         <v>6</v>
       </c>
       <c r="O121" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P121" t="s">
         <v>6</v>
       </c>
-      <c r="Q121" t="s">
-        <v>259</v>
-      </c>
-      <c r="S121" t="s">
+      <c r="Q121" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="S121" s="10" t="s">
         <v>145</v>
       </c>
       <c r="T121" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U121">
         <v>2007</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="D122" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122" s="1"/>
       <c r="L122" t="s">
         <v>18</v>
       </c>
+      <c r="M122"/>
       <c r="N122" t="s">
         <v>6</v>
       </c>
-      <c r="O122" t="s">
+      <c r="O122" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P122" t="s">
         <v>6</v>
       </c>
-      <c r="Q122" t="s">
+      <c r="Q122" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="R122" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="R122" t="s">
+      <c r="S122" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="S122" t="s">
-        <v>224</v>
-      </c>
-      <c r="T122" t="s">
-        <v>599</v>
-      </c>
-      <c r="U122">
+      <c r="T122" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U122" s="12">
         <v>1998</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>8</v>
       </c>
@@ -5923,80 +6346,94 @@
         <v>38</v>
       </c>
       <c r="C123" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="K123" s="1"/>
       <c r="L123" t="s">
         <v>18</v>
       </c>
       <c r="N123" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q123" s="1"/>
+      <c r="S123" s="10"/>
+    </row>
+    <row r="124" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C124" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>579</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="K124" s="1"/>
       <c r="L124" t="s">
         <v>80</v>
       </c>
       <c r="N124" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q124" s="1"/>
+      <c r="S124" s="10"/>
+    </row>
+    <row r="125" spans="1:22" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C125" t="s">
-        <v>292</v>
-      </c>
-      <c r="D125" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125" s="1"/>
+      <c r="L125" t="s">
+        <v>18</v>
+      </c>
+      <c r="M125"/>
+      <c r="N125" t="s">
+        <v>6</v>
+      </c>
+      <c r="O125" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P125" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q125" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="L125" t="s">
-        <v>18</v>
-      </c>
-      <c r="N125" t="s">
-        <v>6</v>
-      </c>
-      <c r="O125" t="s">
-        <v>18</v>
-      </c>
-      <c r="P125" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>349</v>
-      </c>
-      <c r="R125" t="s">
+      <c r="R125" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="S125" t="s">
+      <c r="S125" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="T125" t="s">
-        <v>599</v>
-      </c>
-      <c r="U125">
+      <c r="T125" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="U125" s="5">
         <v>2002</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>10</v>
       </c>
@@ -6004,19 +6441,22 @@
         <v>38</v>
       </c>
       <c r="C126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="K126" s="1"/>
       <c r="L126" t="s">
         <v>18</v>
       </c>
       <c r="N126" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q126" s="1"/>
+      <c r="S126" s="10"/>
+    </row>
+    <row r="127" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>14</v>
       </c>
@@ -6024,22 +6464,25 @@
         <v>38</v>
       </c>
       <c r="C127" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K127" s="1"/>
+      <c r="L127" t="s">
+        <v>80</v>
+      </c>
+      <c r="N127" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q127" s="1"/>
+      <c r="S127" s="10"/>
+      <c r="U127" t="s">
         <v>396</v>
       </c>
-      <c r="L127" t="s">
-        <v>80</v>
-      </c>
-      <c r="N127" t="s">
-        <v>376</v>
-      </c>
-      <c r="U127" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -6047,11 +6490,12 @@
         <v>38</v>
       </c>
       <c r="C128" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>273</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="K128" s="1"/>
       <c r="L128" t="s">
         <v>18</v>
       </c>
@@ -6059,113 +6503,129 @@
         <v>6</v>
       </c>
       <c r="O128" t="s">
-        <v>18</v>
+        <v>609</v>
       </c>
       <c r="P128" t="s">
         <v>72</v>
       </c>
-      <c r="Q128" t="s">
-        <v>272</v>
+      <c r="Q128" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="R128" t="s">
+        <v>273</v>
+      </c>
+      <c r="S128" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="S128" t="s">
-        <v>275</v>
-      </c>
       <c r="T128" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U128">
         <v>2015</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C129" t="s">
-        <v>291</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>281</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129" s="1"/>
       <c r="L129" t="s">
         <v>18</v>
       </c>
+      <c r="M129"/>
       <c r="N129" t="s">
         <v>6</v>
       </c>
-      <c r="O129" t="s">
-        <v>124</v>
+      <c r="O129" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="P129" t="s">
         <v>6</v>
       </c>
-      <c r="Q129" t="s">
+      <c r="Q129" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="R129" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="R129" t="s">
-        <v>280</v>
-      </c>
-      <c r="S129" t="s">
+      <c r="S129" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T129" t="s">
-        <v>599</v>
-      </c>
-      <c r="U129">
+      <c r="T129" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="U129" s="5">
         <v>2012</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="13" t="s">
         <v>68</v>
       </c>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
       <c r="K130" s="1" t="s">
         <v>63</v>
       </c>
       <c r="L130" t="s">
         <v>18</v>
       </c>
-      <c r="O130" t="s">
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P130" t="s">
         <v>6</v>
       </c>
-      <c r="Q130" t="s">
+      <c r="Q130" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="R130" t="s">
+      <c r="R130" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="S130" t="s">
+      <c r="S130" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="T130" t="s">
-        <v>599</v>
-      </c>
-      <c r="V130" t="s">
-        <v>6</v>
-      </c>
-      <c r="W130" t="s">
+      <c r="T130" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="V130" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W130" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1</v>
       </c>
@@ -6173,7 +6633,7 @@
         <v>37</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>30</v>
@@ -6181,8 +6641,9 @@
       <c r="L131" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X131"/>
+    </row>
+    <row r="132" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
@@ -6192,38 +6653,47 @@
       <c r="C132" t="s">
         <v>27</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>264</v>
-      </c>
+      <c r="D132" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
       <c r="K132" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L132" t="s">
         <v>18</v>
       </c>
-      <c r="N132" t="s">
-        <v>6</v>
-      </c>
-      <c r="O132" t="s">
+      <c r="M132"/>
+      <c r="N132" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O132" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P132" t="s">
         <v>6</v>
       </c>
-      <c r="Q132" t="s">
+      <c r="Q132" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="R132"/>
+      <c r="S132" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S132" t="s">
-        <v>263</v>
-      </c>
-      <c r="T132" t="s">
-        <v>601</v>
-      </c>
-      <c r="U132">
+      <c r="T132" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="U132" s="12">
         <v>2005</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X132" s="17"/>
+    </row>
+    <row r="133" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>21</v>
       </c>
@@ -6231,10 +6701,10 @@
         <v>38</v>
       </c>
       <c r="C133" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L133" t="s">
         <v>80</v>
@@ -6243,26 +6713,27 @@
         <v>72</v>
       </c>
       <c r="O133" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P133" t="s">
         <v>104</v>
       </c>
-      <c r="Q133" t="s">
+      <c r="Q133" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="R133" t="s">
         <v>477</v>
       </c>
-      <c r="R133" t="s">
-        <v>478</v>
-      </c>
-      <c r="S133" t="s">
+      <c r="S133" s="10" t="s">
         <v>92</v>
       </c>
       <c r="T133" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U133">
         <v>1997</v>
       </c>
+      <c r="X133"/>
     </row>
     <row r="134" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A134">
@@ -6272,10 +6743,10 @@
         <v>38</v>
       </c>
       <c r="C134" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L134" t="s">
         <v>80</v>
@@ -6284,26 +6755,27 @@
         <v>72</v>
       </c>
       <c r="O134" t="s">
-        <v>80</v>
+        <v>610</v>
       </c>
       <c r="P134" t="s">
         <v>72</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="Q134" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R134" t="s">
         <v>360</v>
       </c>
-      <c r="R134" t="s">
+      <c r="S134" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="S134" t="s">
-        <v>362</v>
-      </c>
       <c r="T134" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U134">
         <v>2013</v>
       </c>
+      <c r="X134"/>
     </row>
     <row r="135" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A135">
@@ -6325,22 +6797,22 @@
         <v>18</v>
       </c>
       <c r="O135" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P135" t="s">
         <v>18</v>
       </c>
-      <c r="Q135" t="s">
+      <c r="Q135" s="1" t="s">
         <v>74</v>
       </c>
       <c r="R135" t="s">
         <v>75</v>
       </c>
-      <c r="S135" t="s">
+      <c r="S135" s="10" t="s">
         <v>76</v>
       </c>
       <c r="T135" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V135" t="s">
         <v>18</v>
@@ -6352,7 +6824,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>23</v>
       </c>
@@ -6360,10 +6832,10 @@
         <v>38</v>
       </c>
       <c r="C136" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L136" t="s">
         <v>80</v>
@@ -6371,6 +6843,7 @@
       <c r="N136" t="s">
         <v>104</v>
       </c>
+      <c r="X136"/>
     </row>
     <row r="137" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A137">
@@ -6383,10 +6856,10 @@
         <v>27</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L137" t="s">
         <v>18</v>
@@ -6395,28 +6868,29 @@
         <v>6</v>
       </c>
       <c r="O137" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P137" t="s">
         <v>6</v>
       </c>
-      <c r="Q137" t="s">
+      <c r="Q137" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R137" t="s">
         <v>246</v>
       </c>
-      <c r="R137" t="s">
+      <c r="S137" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="S137" t="s">
-        <v>248</v>
-      </c>
       <c r="T137" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U137">
         <v>2013</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="X137"/>
+    </row>
+    <row r="138" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>13</v>
       </c>
@@ -6424,10 +6898,10 @@
         <v>38</v>
       </c>
       <c r="C138" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L138" t="s">
         <v>80</v>
@@ -6436,62 +6910,71 @@
         <v>72</v>
       </c>
       <c r="O138" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P138" t="s">
         <v>72</v>
       </c>
-      <c r="Q138" t="s">
+      <c r="Q138" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="S138" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S138" t="s">
-        <v>385</v>
-      </c>
       <c r="T138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U138">
         <v>2004</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X138"/>
+    </row>
+    <row r="139" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>16</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C139" t="s">
         <v>10</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="D139" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139" s="1"/>
       <c r="L139" t="s">
         <v>80</v>
       </c>
+      <c r="M139"/>
       <c r="N139" t="s">
         <v>72</v>
       </c>
-      <c r="O139" t="s">
+      <c r="O139" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P139" t="s">
         <v>72</v>
       </c>
-      <c r="Q139" t="s">
+      <c r="Q139" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="R139" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="R139" t="s">
+      <c r="S139" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="S139" t="s">
-        <v>435</v>
-      </c>
-      <c r="T139" t="s">
-        <v>599</v>
-      </c>
-      <c r="U139">
+      <c r="T139" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U139" s="12">
         <v>2003</v>
       </c>
     </row>
@@ -6503,10 +6986,10 @@
         <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L140" t="s">
         <v>18</v>
@@ -6515,28 +6998,29 @@
         <v>72</v>
       </c>
       <c r="O140" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P140" t="s">
         <v>72</v>
       </c>
-      <c r="Q140" t="s">
+      <c r="Q140" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="R140" t="s">
         <v>326</v>
       </c>
-      <c r="R140" t="s">
-        <v>327</v>
-      </c>
-      <c r="S140" t="s">
+      <c r="S140" s="10" t="s">
         <v>99</v>
       </c>
       <c r="T140" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U140">
         <v>2011</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X140"/>
+    </row>
+    <row r="141" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>8</v>
       </c>
@@ -6544,38 +7028,39 @@
         <v>38</v>
       </c>
       <c r="C141" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L141" t="s">
+        <v>18</v>
+      </c>
+      <c r="N141" t="s">
+        <v>6</v>
+      </c>
+      <c r="O141" t="s">
+        <v>104</v>
+      </c>
+      <c r="P141" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q141" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="L141" t="s">
-        <v>18</v>
-      </c>
-      <c r="N141" t="s">
-        <v>6</v>
-      </c>
-      <c r="O141" t="s">
-        <v>18</v>
-      </c>
-      <c r="P141" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q141" s="7" t="s">
+      <c r="R141" t="s">
         <v>301</v>
       </c>
-      <c r="R141" t="s">
-        <v>302</v>
-      </c>
-      <c r="S141" t="s">
+      <c r="S141" s="10" t="s">
         <v>215</v>
       </c>
       <c r="T141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U141">
         <v>2012</v>
       </c>
+      <c r="X141"/>
     </row>
     <row r="142" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A142">
@@ -6585,10 +7070,10 @@
         <v>38</v>
       </c>
       <c r="C142" t="s">
-        <v>374</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>413</v>
+        <v>373</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="L142" t="s">
         <v>80</v>
@@ -6597,26 +7082,27 @@
         <v>72</v>
       </c>
       <c r="O142" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P142" t="s">
         <v>72</v>
       </c>
-      <c r="Q142" t="s">
+      <c r="Q142" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="R142" t="s">
         <v>414</v>
       </c>
-      <c r="R142" t="s">
+      <c r="S142" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="S142" t="s">
-        <v>416</v>
-      </c>
       <c r="T142" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U142">
         <v>2011</v>
       </c>
+      <c r="X142"/>
     </row>
     <row r="143" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A143">
@@ -6626,10 +7112,10 @@
         <v>38</v>
       </c>
       <c r="C143" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L143" t="s">
         <v>80</v>
@@ -6638,28 +7124,29 @@
         <v>72</v>
       </c>
       <c r="O143" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P143" t="s">
         <v>72</v>
       </c>
-      <c r="Q143" t="s">
+      <c r="Q143" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="R143" t="s">
         <v>480</v>
       </c>
-      <c r="R143" t="s">
-        <v>481</v>
-      </c>
-      <c r="S143" t="s">
-        <v>444</v>
+      <c r="S143" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="T143" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U143">
         <v>2006</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X143"/>
+    </row>
+    <row r="144" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3</v>
       </c>
@@ -6684,13 +7171,13 @@
       <c r="P144" t="s">
         <v>6</v>
       </c>
-      <c r="Q144" t="s">
+      <c r="Q144" s="1" t="s">
         <v>139</v>
       </c>
       <c r="R144" t="s">
         <v>140</v>
       </c>
-      <c r="S144" t="s">
+      <c r="S144" s="10" t="s">
         <v>141</v>
       </c>
       <c r="U144">
@@ -6699,8 +7186,9 @@
       <c r="V144" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="X144"/>
+    </row>
+    <row r="145" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>5</v>
       </c>
@@ -6711,7 +7199,7 @@
         <v>12</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>12</v>
@@ -6723,28 +7211,28 @@
         <v>6</v>
       </c>
       <c r="O145" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P145" t="s">
         <v>6</v>
       </c>
-      <c r="Q145" t="s">
-        <v>244</v>
+      <c r="Q145" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="R145" t="s">
-        <v>242</v>
-      </c>
-      <c r="S145" t="s">
+        <v>241</v>
+      </c>
+      <c r="S145" s="10" t="s">
         <v>62</v>
       </c>
       <c r="T145" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U145">
         <v>1990</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3</v>
       </c>
@@ -6757,6 +7245,7 @@
       <c r="D146" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="K146" s="1"/>
       <c r="L146" t="s">
         <v>18</v>
       </c>
@@ -6764,22 +7253,22 @@
         <v>72</v>
       </c>
       <c r="O146" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P146" t="s">
         <v>72</v>
       </c>
-      <c r="Q146" t="s">
+      <c r="Q146" s="1" t="s">
         <v>153</v>
       </c>
       <c r="R146" t="s">
         <v>154</v>
       </c>
-      <c r="S146" t="s">
+      <c r="S146" s="10" t="s">
         <v>99</v>
       </c>
       <c r="T146" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U146">
         <v>2008</v>
@@ -6788,48 +7277,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C147" t="s">
-        <v>291</v>
-      </c>
-      <c r="D147" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147" s="1"/>
+      <c r="L147" t="s">
+        <v>18</v>
+      </c>
+      <c r="M147"/>
+      <c r="N147" t="s">
+        <v>6</v>
+      </c>
+      <c r="O147" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P147" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q147" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="L147" t="s">
-        <v>18</v>
-      </c>
-      <c r="N147" t="s">
-        <v>6</v>
-      </c>
-      <c r="O147" t="s">
-        <v>18</v>
-      </c>
-      <c r="P147" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q147" t="s">
+      <c r="R147" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="R147" t="s">
-        <v>284</v>
-      </c>
-      <c r="S147" t="s">
+      <c r="S147" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T147" t="s">
-        <v>599</v>
-      </c>
-      <c r="U147">
+      <c r="T147" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U147" s="12">
         <v>2012</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>9</v>
       </c>
@@ -6837,19 +7334,22 @@
         <v>38</v>
       </c>
       <c r="C148" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>319</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="K148" s="1"/>
       <c r="L148" t="s">
         <v>18</v>
       </c>
       <c r="N148" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q148" s="1"/>
+      <c r="S148" s="10"/>
+    </row>
+    <row r="149" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>19</v>
       </c>
@@ -6857,19 +7357,22 @@
         <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="K149" s="1"/>
       <c r="L149" t="s">
         <v>80</v>
       </c>
       <c r="N149" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q149" s="1"/>
+      <c r="S149" s="10"/>
+    </row>
+    <row r="150" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>13</v>
       </c>
@@ -6877,19 +7380,22 @@
         <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="K150" s="1"/>
       <c r="L150" t="s">
         <v>80</v>
       </c>
       <c r="N150" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q150" s="1"/>
+      <c r="S150" s="10"/>
+    </row>
+    <row r="151" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>14</v>
       </c>
@@ -6897,19 +7403,22 @@
         <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>401</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="K151" s="1"/>
       <c r="L151" t="s">
         <v>80</v>
       </c>
       <c r="N151" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q151" s="1"/>
+      <c r="S151" s="10"/>
+    </row>
+    <row r="152" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>8</v>
       </c>
@@ -6917,19 +7426,22 @@
         <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>306</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="K152" s="1"/>
       <c r="L152" t="s">
         <v>18</v>
       </c>
       <c r="N152" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q152" s="1"/>
+      <c r="S152" s="10"/>
+    </row>
+    <row r="153" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>5</v>
       </c>
@@ -6940,7 +7452,7 @@
         <v>12</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>12</v>
@@ -6951,8 +7463,10 @@
       <c r="N153" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q153" s="1"/>
+      <c r="S153" s="10"/>
+    </row>
+    <row r="154" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>10</v>
       </c>
@@ -6960,40 +7474,41 @@
         <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>355</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="K154" s="1"/>
       <c r="L154" t="s">
         <v>80</v>
       </c>
       <c r="M154" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N154" t="s">
         <v>72</v>
       </c>
       <c r="O154" t="s">
-        <v>80</v>
+        <v>606</v>
       </c>
       <c r="P154" t="s">
         <v>72</v>
       </c>
-      <c r="Q154" t="s">
+      <c r="Q154" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="S154" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="S154" t="s">
-        <v>354</v>
-      </c>
       <c r="T154" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U154">
         <v>1987</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>15</v>
       </c>
@@ -7001,11 +7516,12 @@
         <v>38</v>
       </c>
       <c r="C155" t="s">
-        <v>374</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>420</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K155" s="1"/>
       <c r="L155" t="s">
         <v>80</v>
       </c>
@@ -7013,48 +7529,51 @@
         <v>72</v>
       </c>
       <c r="O155" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P155" t="s">
         <v>72</v>
       </c>
-      <c r="Q155" t="s">
-        <v>421</v>
+      <c r="Q155" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="R155" t="s">
-        <v>278</v>
-      </c>
-      <c r="S155" t="s">
+        <v>277</v>
+      </c>
+      <c r="S155" s="10" t="s">
         <v>111</v>
       </c>
       <c r="T155" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U155">
         <v>2010</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>53</v>
       </c>
       <c r="B156" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C156" t="s">
+        <v>570</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="K156" s="1"/>
       <c r="L156" t="s">
         <v>80</v>
       </c>
       <c r="N156" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Q156" s="1"/>
+      <c r="S156" s="10"/>
+    </row>
+    <row r="157" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>15</v>
       </c>
@@ -7062,66 +7581,77 @@
         <v>38</v>
       </c>
       <c r="C157" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>407</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K157" s="1"/>
       <c r="L157" t="s">
         <v>80</v>
       </c>
       <c r="N157" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q157" s="1"/>
+      <c r="S157" s="10"/>
+    </row>
+    <row r="158" spans="1:23" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="13" t="s">
         <v>108</v>
       </c>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158" s="1"/>
       <c r="L158" t="s">
         <v>18</v>
       </c>
+      <c r="M158"/>
       <c r="N158" t="s">
         <v>6</v>
       </c>
-      <c r="O158" t="s">
+      <c r="O158" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P158" t="s">
         <v>6</v>
       </c>
-      <c r="Q158" t="s">
+      <c r="Q158" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R158" t="s">
+      <c r="R158" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="S158" t="s">
+      <c r="S158" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="T158" t="s">
-        <v>599</v>
-      </c>
-      <c r="U158">
+      <c r="T158" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U158" s="12">
         <v>2008</v>
       </c>
-      <c r="V158" t="s">
-        <v>6</v>
-      </c>
-      <c r="W158" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+      <c r="V158" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W158" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -7129,7 +7659,7 @@
         <v>37</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E159" t="s">
         <v>16</v>
@@ -7146,8 +7676,10 @@
       <c r="L159" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q159" s="1"/>
+      <c r="S159" s="10"/>
+    </row>
+    <row r="160" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4</v>
       </c>
@@ -7160,116 +7692,138 @@
       <c r="D160" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="K160" s="1"/>
       <c r="L160" t="s">
         <v>18</v>
       </c>
       <c r="N160" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Q160" s="1"/>
+      <c r="S160" s="10"/>
+    </row>
+    <row r="161" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C161" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>553</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="K161" s="1"/>
       <c r="L161" t="s">
         <v>80</v>
       </c>
       <c r="N161" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q161" s="1"/>
+      <c r="S161" s="10"/>
+    </row>
+    <row r="162" spans="1:21" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>15</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>374</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>426</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162" s="1"/>
       <c r="L162" t="s">
         <v>80</v>
       </c>
+      <c r="M162"/>
       <c r="N162" t="s">
         <v>72</v>
       </c>
-      <c r="O162" t="s">
+      <c r="O162" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P162" t="s">
         <v>72</v>
       </c>
-      <c r="Q162" t="s">
+      <c r="Q162" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="R162" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="R162" t="s">
+      <c r="S162" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="S162" t="s">
-        <v>429</v>
-      </c>
-      <c r="T162" t="s">
-        <v>599</v>
-      </c>
-      <c r="U162">
+      <c r="T162" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U162" s="12">
         <v>2006</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>16</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>436</v>
-      </c>
+      <c r="D163" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163" s="1"/>
       <c r="L163" t="s">
         <v>80</v>
       </c>
+      <c r="M163"/>
       <c r="N163" t="s">
         <v>72</v>
       </c>
-      <c r="O163" t="s">
+      <c r="O163" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P163" t="s">
         <v>72</v>
       </c>
-      <c r="Q163" t="s">
-        <v>437</v>
-      </c>
-      <c r="R163" t="s">
+      <c r="Q163" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="R163" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="S163" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="S163" t="s">
-        <v>435</v>
-      </c>
-      <c r="T163" t="s">
-        <v>599</v>
-      </c>
-      <c r="U163">
+      <c r="T163" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U163" s="12">
         <v>2001</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>15</v>
       </c>
@@ -7277,11 +7831,12 @@
         <v>38</v>
       </c>
       <c r="C164" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>408</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="K164" s="1"/>
       <c r="L164" t="s">
         <v>80</v>
       </c>
@@ -7289,89 +7844,100 @@
         <v>72</v>
       </c>
       <c r="O164" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P164" t="s">
         <v>72</v>
       </c>
-      <c r="Q164" t="s">
+      <c r="Q164" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="R164" t="s">
         <v>409</v>
       </c>
-      <c r="R164" t="s">
+      <c r="S164" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="S164" t="s">
-        <v>411</v>
-      </c>
       <c r="T164" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U164">
         <v>2012</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="D165" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165" s="1"/>
       <c r="L165" t="s">
         <v>18</v>
       </c>
+      <c r="M165"/>
       <c r="N165" t="s">
         <v>6</v>
       </c>
-      <c r="O165" t="s">
+      <c r="O165" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P165" t="s">
         <v>6</v>
       </c>
-      <c r="Q165" t="s">
+      <c r="Q165" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="R165" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="R165" t="s">
+      <c r="S165" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="S165" t="s">
-        <v>228</v>
-      </c>
-      <c r="T165" t="s">
-        <v>599</v>
-      </c>
-      <c r="U165">
+      <c r="T165" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U165" s="12">
         <v>1998</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>32</v>
       </c>
       <c r="B166" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C166" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>554</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="K166" s="1"/>
       <c r="L166" t="s">
         <v>80</v>
       </c>
       <c r="N166" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q166" s="1"/>
+      <c r="S166" s="10"/>
+    </row>
+    <row r="167" spans="1:21" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4</v>
       </c>
@@ -7384,14 +7950,17 @@
       <c r="D167" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="K167" s="1"/>
       <c r="L167" t="s">
         <v>18</v>
       </c>
       <c r="N167" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="Q167" s="1"/>
+      <c r="S167" s="10"/>
+    </row>
+    <row r="168" spans="1:21" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -7399,7 +7968,7 @@
         <v>37</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>8</v>
@@ -7407,49 +7976,59 @@
       <c r="L168" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q168" s="1"/>
+      <c r="S168" s="10"/>
+    </row>
+    <row r="169" spans="1:21" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>7</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C169" t="s">
-        <v>291</v>
-      </c>
-      <c r="D169" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169" s="1"/>
+      <c r="L169" t="s">
+        <v>18</v>
+      </c>
+      <c r="M169"/>
+      <c r="N169" t="s">
+        <v>6</v>
+      </c>
+      <c r="O169" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P169" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q169" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="L169" t="s">
-        <v>18</v>
-      </c>
-      <c r="N169" t="s">
-        <v>6</v>
-      </c>
-      <c r="O169" t="s">
-        <v>18</v>
-      </c>
-      <c r="P169" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>286</v>
-      </c>
-      <c r="R169" t="s">
+      <c r="R169" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="S169" t="s">
+      <c r="S169" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="T169" t="s">
-        <v>599</v>
-      </c>
-      <c r="U169">
+      <c r="T169" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U169" s="12">
         <v>1999</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -7457,13 +8036,16 @@
         <v>37</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>594</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="K170" s="1"/>
       <c r="L170" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q170" s="1"/>
+      <c r="S170" s="10"/>
+    </row>
+    <row r="171" spans="1:21" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>8</v>
       </c>
@@ -7471,19 +8053,22 @@
         <v>38</v>
       </c>
       <c r="C171" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>313</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="K171" s="1"/>
       <c r="L171" t="s">
         <v>18</v>
       </c>
       <c r="N171" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q171" s="1"/>
+      <c r="S171" s="10"/>
+    </row>
+    <row r="172" spans="1:21" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>8</v>
       </c>
@@ -7491,60 +8076,71 @@
         <v>38</v>
       </c>
       <c r="C172" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>299</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="K172" s="1"/>
       <c r="L172" t="s">
         <v>18</v>
       </c>
       <c r="N172" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q172" s="1"/>
+      <c r="S172" s="10"/>
+    </row>
+    <row r="173" spans="1:21" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>15</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C173" t="s">
-        <v>374</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>430</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173" s="1"/>
       <c r="L173" t="s">
         <v>80</v>
       </c>
+      <c r="M173"/>
       <c r="N173" t="s">
         <v>72</v>
       </c>
-      <c r="O173" t="s">
+      <c r="O173" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P173" t="s">
         <v>72</v>
       </c>
-      <c r="Q173" t="s">
-        <v>431</v>
-      </c>
-      <c r="R173" t="s">
+      <c r="Q173" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="R173" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="S173" t="s">
-        <v>362</v>
-      </c>
-      <c r="T173" t="s">
-        <v>599</v>
-      </c>
-      <c r="U173">
+      <c r="S173" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="T173" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U173" s="12">
         <v>1998</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>22</v>
       </c>
@@ -7552,11 +8148,12 @@
         <v>38</v>
       </c>
       <c r="C174" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>483</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="K174" s="1"/>
       <c r="L174" t="s">
         <v>80</v>
       </c>
@@ -7564,28 +8161,28 @@
         <v>72</v>
       </c>
       <c r="O174" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P174" t="s">
         <v>72</v>
       </c>
-      <c r="Q174" t="s">
+      <c r="Q174" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="R174" t="s">
         <v>484</v>
       </c>
-      <c r="R174" t="s">
+      <c r="S174" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="S174" t="s">
-        <v>486</v>
-      </c>
       <c r="T174" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U174">
         <v>1998</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4</v>
       </c>
@@ -7598,6 +8195,7 @@
       <c r="D175" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="K175" s="1"/>
       <c r="L175" t="s">
         <v>18</v>
       </c>
@@ -7605,28 +8203,28 @@
         <v>6</v>
       </c>
       <c r="O175" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P175" t="s">
         <v>6</v>
       </c>
-      <c r="Q175" t="s">
+      <c r="Q175" s="1" t="s">
         <v>214</v>
       </c>
       <c r="R175" t="s">
         <v>174</v>
       </c>
-      <c r="S175" t="s">
+      <c r="S175" s="10" t="s">
         <v>215</v>
       </c>
       <c r="T175" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U175">
         <v>2002</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>12</v>
       </c>
@@ -7634,19 +8232,22 @@
         <v>38</v>
       </c>
       <c r="C176" t="s">
+        <v>355</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="K176" s="1"/>
       <c r="L176" t="s">
         <v>80</v>
       </c>
       <c r="N176" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="177" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q176" s="1"/>
+      <c r="S176" s="10"/>
+    </row>
+    <row r="177" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>8</v>
       </c>
@@ -7654,10 +8255,10 @@
         <v>38</v>
       </c>
       <c r="C177" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L177" t="s">
         <v>18</v>
@@ -7665,8 +8266,9 @@
       <c r="N177" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="178" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="X177"/>
+    </row>
+    <row r="178" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>9</v>
       </c>
@@ -7674,10 +8276,10 @@
         <v>38</v>
       </c>
       <c r="C178" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L178" t="s">
         <v>80</v>
@@ -7685,6 +8287,7 @@
       <c r="N178" t="s">
         <v>104</v>
       </c>
+      <c r="X178"/>
     </row>
     <row r="179" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A179">
@@ -7694,10 +8297,10 @@
         <v>38</v>
       </c>
       <c r="C179" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L179" t="s">
         <v>80</v>
@@ -7706,28 +8309,29 @@
         <v>72</v>
       </c>
       <c r="O179" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P179" t="s">
         <v>72</v>
       </c>
-      <c r="Q179" t="s">
+      <c r="Q179" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="R179" t="s">
         <v>467</v>
       </c>
-      <c r="R179" t="s">
+      <c r="S179" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="S179" t="s">
-        <v>469</v>
-      </c>
       <c r="T179" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U179">
         <v>2014</v>
       </c>
-    </row>
-    <row r="180" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X179"/>
+    </row>
+    <row r="180" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3</v>
       </c>
@@ -7747,22 +8351,22 @@
         <v>6</v>
       </c>
       <c r="O180" t="s">
-        <v>18</v>
+        <v>606</v>
       </c>
       <c r="P180" t="s">
         <v>6</v>
       </c>
-      <c r="Q180" t="s">
+      <c r="Q180" s="1" t="s">
         <v>170</v>
       </c>
       <c r="R180" t="s">
         <v>171</v>
       </c>
-      <c r="S180" t="s">
+      <c r="S180" s="10" t="s">
         <v>145</v>
       </c>
       <c r="T180" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U180">
         <v>1993</v>
@@ -7770,8 +8374,9 @@
       <c r="V180" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="181" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X180"/>
+    </row>
+    <row r="181" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>24</v>
       </c>
@@ -7779,10 +8384,10 @@
         <v>38</v>
       </c>
       <c r="C181" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L181" t="s">
         <v>80</v>
@@ -7791,25 +8396,26 @@
         <v>72</v>
       </c>
       <c r="O181" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P181" t="s">
         <v>72</v>
       </c>
-      <c r="Q181" t="s">
+      <c r="Q181" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="S181" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="S181" t="s">
-        <v>518</v>
-      </c>
       <c r="T181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U181">
         <v>2009</v>
       </c>
-    </row>
-    <row r="182" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="X181"/>
+    </row>
+    <row r="182" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>17</v>
       </c>
@@ -7820,7 +8426,7 @@
         <v>10</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L182" t="s">
         <v>80</v>
@@ -7828,49 +8434,59 @@
       <c r="N182" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="183" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X182"/>
+    </row>
+    <row r="183" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="13" t="s">
         <v>96</v>
       </c>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183" s="1"/>
       <c r="L183" t="s">
         <v>18</v>
       </c>
-      <c r="O183" t="s">
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P183" t="s">
         <v>6</v>
       </c>
-      <c r="Q183" t="s">
+      <c r="Q183" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="R183" t="s">
+      <c r="R183" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="S183" t="s">
+      <c r="S183" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="T183" t="s">
-        <v>599</v>
-      </c>
-      <c r="U183">
+      <c r="T183" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U183" s="12">
         <v>2010</v>
       </c>
-      <c r="V183" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="V183" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>4</v>
       </c>
@@ -7890,104 +8506,121 @@
         <v>6</v>
       </c>
       <c r="O184" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P184" t="s">
         <v>6</v>
       </c>
-      <c r="Q184" t="s">
+      <c r="Q184" s="1" t="s">
         <v>173</v>
       </c>
       <c r="R184" t="s">
         <v>174</v>
       </c>
-      <c r="S184" t="s">
+      <c r="S184" s="10" t="s">
         <v>175</v>
       </c>
       <c r="T184" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U184">
         <v>2011</v>
       </c>
-    </row>
-    <row r="185" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X184"/>
+    </row>
+    <row r="185" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>23</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C185" t="s">
-        <v>448</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>512</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="K185" s="1"/>
       <c r="L185" t="s">
         <v>80</v>
       </c>
+      <c r="M185"/>
       <c r="N185" t="s">
         <v>72</v>
       </c>
-      <c r="O185" t="s">
+      <c r="O185" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P185" t="s">
         <v>72</v>
       </c>
-      <c r="Q185" t="s">
+      <c r="Q185" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="S185" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="S185" t="s">
-        <v>514</v>
-      </c>
-      <c r="T185" t="s">
-        <v>599</v>
-      </c>
-      <c r="U185">
+      <c r="T185" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U185" s="12">
         <v>1977</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>24</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C186" t="s">
-        <v>448</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>536</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186"/>
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186" s="1"/>
       <c r="L186" t="s">
         <v>80</v>
       </c>
+      <c r="M186"/>
       <c r="N186" t="s">
         <v>72</v>
       </c>
-      <c r="O186" t="s">
+      <c r="O186" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P186" t="s">
         <v>72</v>
       </c>
-      <c r="Q186" t="s">
+      <c r="Q186" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="S186" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="S186" t="s">
-        <v>538</v>
-      </c>
-      <c r="T186" t="s">
-        <v>599</v>
-      </c>
-      <c r="U186">
+      <c r="T186" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U186" s="12">
         <v>1985</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>22</v>
       </c>
@@ -7995,10 +8628,10 @@
         <v>38</v>
       </c>
       <c r="C187" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L187" t="s">
         <v>80</v>
@@ -8006,8 +8639,9 @@
       <c r="N187" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="188" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="X187"/>
+    </row>
+    <row r="188" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>9</v>
       </c>
@@ -8015,10 +8649,10 @@
         <v>38</v>
       </c>
       <c r="C188" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L188" t="s">
         <v>18</v>
@@ -8026,49 +8660,58 @@
       <c r="N188" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="189" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="X188"/>
+    </row>
+    <row r="189" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C189" t="s">
-        <v>291</v>
-      </c>
-      <c r="D189" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="D189" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189"/>
+      <c r="J189"/>
+      <c r="K189" s="1"/>
       <c r="L189" t="s">
         <v>18</v>
       </c>
+      <c r="M189"/>
       <c r="N189" t="s">
         <v>6</v>
       </c>
-      <c r="O189" t="s">
+      <c r="O189" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P189" t="s">
         <v>6</v>
       </c>
-      <c r="Q189" t="s">
+      <c r="Q189" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="R189" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="R189" t="s">
-        <v>289</v>
-      </c>
-      <c r="S189" t="s">
+      <c r="S189" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T189" t="s">
-        <v>599</v>
-      </c>
-      <c r="U189">
+      <c r="T189" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="U189" s="12">
         <v>1993</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>9</v>
       </c>
@@ -8076,22 +8719,23 @@
         <v>38</v>
       </c>
       <c r="C190" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L190" t="s">
         <v>18</v>
       </c>
       <c r="M190" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N190" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="191" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X190"/>
+    </row>
+    <row r="191" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>3</v>
       </c>
@@ -8110,18 +8754,19 @@
       <c r="N191" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="192" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X191"/>
+    </row>
+    <row r="192" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="D192" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E192" s="3"/>
@@ -8138,28 +8783,24 @@
       </c>
       <c r="M192" s="3"/>
       <c r="N192" s="3"/>
-      <c r="O192" s="3" t="s">
+      <c r="O192" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P192" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q192" s="3" t="s">
+      <c r="Q192" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="R192" s="3" t="s">
+      <c r="R192" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S192" s="3" t="s">
+      <c r="S192" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="T192" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="U192" s="3"/>
-      <c r="V192" s="3"/>
-      <c r="W192" s="3"/>
-      <c r="X192" s="3"/>
+      <c r="T192" s="12" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="193" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A193">
@@ -8172,7 +8813,7 @@
         <v>12</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K193" s="1" t="s">
         <v>12</v>
@@ -8189,23 +8830,24 @@
       <c r="P193" t="s">
         <v>6</v>
       </c>
-      <c r="Q193" t="s">
-        <v>237</v>
+      <c r="Q193" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="R193" t="s">
         <v>198</v>
       </c>
-      <c r="S193" t="s">
+      <c r="S193" s="10" t="s">
         <v>71</v>
       </c>
       <c r="T193" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U193">
         <v>2015</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X193"/>
+    </row>
+    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2</v>
       </c>
@@ -8224,6 +8866,7 @@
       <c r="N194" t="s">
         <v>104</v>
       </c>
+      <c r="X194"/>
     </row>
     <row r="195" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A195">
@@ -8233,10 +8876,10 @@
         <v>38</v>
       </c>
       <c r="C195" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L195" t="s">
         <v>80</v>
@@ -8250,23 +8893,24 @@
       <c r="P195" t="s">
         <v>72</v>
       </c>
-      <c r="Q195" t="s">
+      <c r="Q195" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R195" t="s">
         <v>399</v>
       </c>
-      <c r="R195" t="s">
-        <v>400</v>
-      </c>
-      <c r="S195" t="s">
+      <c r="S195" s="10" t="s">
         <v>206</v>
       </c>
       <c r="T195" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U195">
         <v>2009</v>
       </c>
-    </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X195"/>
+    </row>
+    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>12</v>
       </c>
@@ -8274,10 +8918,10 @@
         <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L196" t="s">
         <v>80</v>
@@ -8285,8 +8929,9 @@
       <c r="M196" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="197" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X196"/>
+    </row>
+    <row r="197" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>23</v>
       </c>
@@ -8294,10 +8939,10 @@
         <v>38</v>
       </c>
       <c r="C197" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L197" t="s">
         <v>80</v>
@@ -8308,8 +8953,9 @@
       <c r="N197" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X197"/>
+    </row>
+    <row r="198" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>3</v>
       </c>
@@ -8328,6 +8974,7 @@
       <c r="N198" t="s">
         <v>104</v>
       </c>
+      <c r="X198"/>
     </row>
     <row r="199" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A199">
@@ -8357,17 +9004,17 @@
       <c r="P199" t="s">
         <v>6</v>
       </c>
-      <c r="Q199" t="s">
+      <c r="Q199" s="1" t="s">
         <v>113</v>
       </c>
       <c r="R199" t="s">
         <v>114</v>
       </c>
-      <c r="S199" t="s">
+      <c r="S199" s="10" t="s">
         <v>115</v>
       </c>
       <c r="T199" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U199">
         <v>2005</v>
@@ -8376,10 +9023,11 @@
         <v>6</v>
       </c>
       <c r="W199" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="X199"/>
+    </row>
+    <row r="200" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -8412,17 +9060,17 @@
       <c r="P200" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q200" s="5" t="s">
+      <c r="Q200" s="6" t="s">
         <v>65</v>
       </c>
       <c r="R200" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="S200" s="5" t="s">
+      <c r="S200" s="11" t="s">
         <v>67</v>
       </c>
       <c r="T200" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U200" s="5"/>
       <c r="V200" s="5" t="s">
@@ -8433,7 +9081,7 @@
       </c>
       <c r="X200" s="5"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>20</v>
       </c>
@@ -8441,10 +9089,10 @@
         <v>38</v>
       </c>
       <c r="C201" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L201" t="s">
         <v>80</v>
@@ -8453,26 +9101,27 @@
         <v>72</v>
       </c>
       <c r="O201" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P201" t="s">
         <v>72</v>
       </c>
-      <c r="Q201" t="s">
+      <c r="Q201" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="R201" t="s">
         <v>461</v>
       </c>
-      <c r="R201" t="s">
-        <v>462</v>
-      </c>
-      <c r="S201" t="s">
+      <c r="S201" s="10" t="s">
         <v>215</v>
       </c>
       <c r="T201" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U201">
         <v>2012</v>
       </c>
+      <c r="X201"/>
     </row>
     <row r="202" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A202">
@@ -8482,16 +9131,16 @@
         <v>38</v>
       </c>
       <c r="C202" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L202" t="s">
         <v>80</v>
       </c>
       <c r="M202" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O202" t="s">
         <v>80</v>
@@ -8499,17 +9148,18 @@
       <c r="P202" t="s">
         <v>72</v>
       </c>
-      <c r="Q202" t="s">
-        <v>489</v>
+      <c r="Q202" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="T202" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U202">
         <v>1985</v>
       </c>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X202"/>
+    </row>
+    <row r="203" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2</v>
       </c>
@@ -8534,17 +9184,17 @@
       <c r="P203" t="s">
         <v>6</v>
       </c>
-      <c r="Q203" t="s">
+      <c r="Q203" s="1" t="s">
         <v>121</v>
       </c>
       <c r="R203" t="s">
         <v>122</v>
       </c>
-      <c r="S203" t="s">
+      <c r="S203" s="10" t="s">
         <v>111</v>
       </c>
       <c r="T203" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U203">
         <v>2001</v>
@@ -8552,8 +9202,9 @@
       <c r="V203" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="204" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="X203"/>
+    </row>
+    <row r="204" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>24</v>
       </c>
@@ -8561,10 +9212,10 @@
         <v>38</v>
       </c>
       <c r="C204" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L204" t="s">
         <v>80</v>
@@ -8573,23 +9224,24 @@
         <v>72</v>
       </c>
       <c r="O204" t="s">
-        <v>80</v>
+        <v>606</v>
       </c>
       <c r="P204" t="s">
         <v>72</v>
       </c>
-      <c r="Q204" t="s">
-        <v>535</v>
-      </c>
-      <c r="S204" t="s">
+      <c r="Q204" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="S204" s="10" t="s">
         <v>215</v>
       </c>
       <c r="T204" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U204">
         <v>1987</v>
       </c>
+      <c r="X204"/>
     </row>
     <row r="205" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A205">
@@ -8602,10 +9254,10 @@
         <v>27</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L205" t="s">
         <v>18</v>
@@ -8619,60 +9271,62 @@
       <c r="P205" t="s">
         <v>6</v>
       </c>
-      <c r="Q205" t="s">
+      <c r="Q205" s="1" t="s">
         <v>205</v>
       </c>
       <c r="R205" t="s">
-        <v>265</v>
-      </c>
-      <c r="S205" t="s">
+        <v>264</v>
+      </c>
+      <c r="S205" s="10" t="s">
         <v>206</v>
       </c>
       <c r="T205" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U205">
         <v>2004</v>
       </c>
-    </row>
-    <row r="206" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="X205"/>
+    </row>
+    <row r="206" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>32</v>
       </c>
       <c r="B206" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C206" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D206" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L206" t="s">
+        <v>80</v>
+      </c>
+      <c r="N206" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q206" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="U206" t="s">
         <v>555</v>
       </c>
-      <c r="L206" t="s">
-        <v>80</v>
-      </c>
-      <c r="N206" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q206" t="s">
-        <v>557</v>
-      </c>
-      <c r="U206" t="s">
-        <v>556</v>
-      </c>
+      <c r="X206"/>
     </row>
     <row r="207" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>32</v>
       </c>
       <c r="B207" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C207" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L207" t="s">
         <v>80</v>
@@ -8686,21 +9340,22 @@
       <c r="P207" t="s">
         <v>72</v>
       </c>
-      <c r="Q207" t="s">
+      <c r="Q207" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="R207" t="s">
+        <v>560</v>
+      </c>
+      <c r="S207" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="R207" t="s">
-        <v>561</v>
-      </c>
-      <c r="S207" t="s">
-        <v>560</v>
-      </c>
       <c r="T207" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U207">
         <v>2015</v>
       </c>
+      <c r="X207"/>
     </row>
     <row r="208" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A208">
@@ -8710,10 +9365,10 @@
         <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L208" t="s">
         <v>80</v>
@@ -8727,23 +9382,24 @@
       <c r="P208" t="s">
         <v>72</v>
       </c>
-      <c r="Q208" t="s">
+      <c r="Q208" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="R208" t="s">
         <v>388</v>
       </c>
-      <c r="R208" t="s">
-        <v>389</v>
-      </c>
-      <c r="S208" t="s">
+      <c r="S208" s="10" t="s">
         <v>145</v>
       </c>
       <c r="T208" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U208">
         <v>1996</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+      <c r="X208"/>
+    </row>
+    <row r="209" spans="1:23" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1</v>
       </c>
@@ -8751,7 +9407,7 @@
         <v>37</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G209" t="s">
         <v>21</v>
@@ -8762,8 +9418,10 @@
       <c r="L209" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+      <c r="Q209" s="1"/>
+      <c r="S209" s="10"/>
+    </row>
+    <row r="210" spans="1:23" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
@@ -8771,7 +9429,7 @@
         <v>37</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K210" s="1" t="s">
         <v>34</v>
@@ -8779,8 +9437,10 @@
       <c r="L210" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+      <c r="Q210" s="1"/>
+      <c r="S210" s="10"/>
+    </row>
+    <row r="211" spans="1:23" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1</v>
       </c>
@@ -8788,7 +9448,7 @@
         <v>37</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>29</v>
@@ -8796,8 +9456,10 @@
       <c r="L211" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q211" s="1"/>
+      <c r="S211" s="10"/>
+    </row>
+    <row r="212" spans="1:23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>12</v>
       </c>
@@ -8805,11 +9467,12 @@
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>372</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="K212" s="1"/>
       <c r="L212" t="s">
         <v>80</v>
       </c>
@@ -8822,23 +9485,23 @@
       <c r="P212" t="s">
         <v>72</v>
       </c>
-      <c r="Q212" t="s">
-        <v>371</v>
+      <c r="Q212" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="R212" t="s">
         <v>208</v>
       </c>
-      <c r="S212" t="s">
+      <c r="S212" s="10" t="s">
         <v>92</v>
       </c>
       <c r="T212" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="U212">
         <v>2004</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>14</v>
       </c>
@@ -8846,19 +9509,22 @@
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>394</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="K213" s="1"/>
       <c r="L213" t="s">
         <v>80</v>
       </c>
       <c r="N213" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Q213" s="1"/>
+      <c r="S213" s="10"/>
+    </row>
+    <row r="214" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>10</v>
       </c>
@@ -8866,40 +9532,41 @@
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>292</v>
-      </c>
-      <c r="D214" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K214" s="1"/>
+      <c r="L214" t="s">
+        <v>18</v>
+      </c>
+      <c r="N214" t="s">
+        <v>6</v>
+      </c>
+      <c r="O214" t="s">
+        <v>18</v>
+      </c>
+      <c r="P214" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q214" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L214" t="s">
-        <v>18</v>
-      </c>
-      <c r="N214" t="s">
-        <v>6</v>
-      </c>
-      <c r="O214" t="s">
-        <v>18</v>
-      </c>
-      <c r="P214" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q214" t="s">
+      <c r="R214" t="s">
         <v>331</v>
       </c>
-      <c r="R214" t="s">
+      <c r="S214" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="S214" t="s">
-        <v>333</v>
-      </c>
       <c r="T214" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U214">
         <v>2009</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>18</v>
       </c>
@@ -8907,19 +9574,22 @@
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>453</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="K215" s="1"/>
       <c r="L215" t="s">
         <v>80</v>
       </c>
       <c r="N215" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q215" s="1"/>
+      <c r="S215" s="10"/>
+    </row>
+    <row r="216" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>4</v>
       </c>
@@ -8932,14 +9602,17 @@
       <c r="D216" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="K216" s="1"/>
       <c r="L216" t="s">
         <v>18</v>
       </c>
       <c r="N216" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q216" s="1"/>
+      <c r="S216" s="10"/>
+    </row>
+    <row r="217" spans="1:23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>17</v>
       </c>
@@ -8950,8 +9623,9 @@
         <v>10</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>445</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="K217" s="1"/>
       <c r="L217" t="s">
         <v>80</v>
       </c>
@@ -8964,20 +9638,20 @@
       <c r="P217" t="s">
         <v>72</v>
       </c>
-      <c r="Q217" t="s">
+      <c r="Q217" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="S217" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="S217" t="s">
-        <v>447</v>
-      </c>
       <c r="T217" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U217">
         <v>1984</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>24</v>
       </c>
@@ -8985,19 +9659,22 @@
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>520</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="K218" s="1"/>
       <c r="L218" t="s">
         <v>80</v>
       </c>
       <c r="N218" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q218" s="1"/>
+      <c r="S218" s="10"/>
+    </row>
+    <row r="219" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>4</v>
       </c>
@@ -9010,6 +9687,7 @@
       <c r="D219" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="K219" s="1"/>
       <c r="L219" t="s">
         <v>18</v>
       </c>
@@ -9022,23 +9700,23 @@
       <c r="P219" t="s">
         <v>6</v>
       </c>
-      <c r="Q219" t="s">
+      <c r="Q219" s="1" t="s">
         <v>197</v>
       </c>
       <c r="R219" t="s">
         <v>198</v>
       </c>
-      <c r="S219" t="s">
+      <c r="S219" s="10" t="s">
         <v>71</v>
       </c>
       <c r="T219" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U219">
         <v>2007</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>4</v>
       </c>
@@ -9051,34 +9729,40 @@
       <c r="D220" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="K220" s="1"/>
       <c r="L220" t="s">
         <v>18</v>
       </c>
       <c r="N220" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q220" s="1"/>
+      <c r="S220" s="10"/>
+    </row>
+    <row r="221" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C221" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>564</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="K221" s="1"/>
       <c r="L221" t="s">
         <v>80</v>
       </c>
       <c r="N221" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q221" s="1"/>
+      <c r="S221" s="10"/>
+    </row>
+    <row r="222" spans="1:23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>7</v>
       </c>
@@ -9086,11 +9770,12 @@
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="K222" s="1"/>
       <c r="L222" t="s">
         <v>18</v>
       </c>
@@ -9103,23 +9788,23 @@
       <c r="P222" t="s">
         <v>72</v>
       </c>
-      <c r="Q222" t="s">
-        <v>276</v>
+      <c r="Q222" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="R222" t="s">
-        <v>278</v>
-      </c>
-      <c r="S222" t="s">
+        <v>277</v>
+      </c>
+      <c r="S222" s="10" t="s">
         <v>111</v>
       </c>
       <c r="T222" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U222">
         <v>2014</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>17</v>
       </c>
@@ -9130,16 +9815,19 @@
         <v>10</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>440</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="K223" s="1"/>
       <c r="L223" t="s">
         <v>80</v>
       </c>
       <c r="N223" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q223" s="1"/>
+      <c r="S223" s="10"/>
+    </row>
+    <row r="224" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1</v>
       </c>
@@ -9173,17 +9861,17 @@
       <c r="P224" t="s">
         <v>6</v>
       </c>
-      <c r="Q224" t="s">
+      <c r="Q224" s="1" t="s">
         <v>60</v>
       </c>
       <c r="R224" t="s">
         <v>61</v>
       </c>
-      <c r="S224" t="s">
+      <c r="S224" s="10" t="s">
         <v>62</v>
       </c>
       <c r="T224" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V224" t="s">
         <v>18</v>
@@ -9192,7 +9880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>24</v>
       </c>
@@ -9200,19 +9888,22 @@
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>523</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="K225" s="1"/>
       <c r="L225" t="s">
         <v>80</v>
       </c>
       <c r="N225" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="226" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q225" s="1"/>
+      <c r="S225" s="10"/>
+    </row>
+    <row r="226" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>15</v>
       </c>
@@ -9220,19 +9911,22 @@
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>412</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="K226" s="1"/>
       <c r="L226" t="s">
         <v>80</v>
       </c>
       <c r="N226" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="227" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="Q226" s="1"/>
+      <c r="S226" s="10"/>
+    </row>
+    <row r="227" spans="1:22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2</v>
       </c>
@@ -9245,6 +9939,7 @@
       <c r="D227" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="K227" s="1"/>
       <c r="L227" t="s">
         <v>18</v>
       </c>
@@ -9254,17 +9949,17 @@
       <c r="P227" t="s">
         <v>6</v>
       </c>
-      <c r="Q227" t="s">
+      <c r="Q227" s="1" t="s">
         <v>97</v>
       </c>
       <c r="R227" t="s">
         <v>98</v>
       </c>
-      <c r="S227" t="s">
+      <c r="S227" s="10" t="s">
         <v>99</v>
       </c>
       <c r="T227" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U227">
         <v>2010</v>
@@ -9273,7 +9968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>23</v>
       </c>
@@ -9281,19 +9976,22 @@
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>493</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="K228" s="1"/>
       <c r="L228" t="s">
         <v>80</v>
       </c>
       <c r="N228" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="229" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="Q228" s="1"/>
+      <c r="S228" s="10"/>
+    </row>
+    <row r="229" spans="1:22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2</v>
       </c>
@@ -9318,17 +10016,17 @@
       <c r="P229" t="s">
         <v>6</v>
       </c>
-      <c r="Q229" t="s">
+      <c r="Q229" s="1" t="s">
         <v>82</v>
       </c>
       <c r="R229" t="s">
         <v>83</v>
       </c>
-      <c r="S229" t="s">
+      <c r="S229" s="10" t="s">
         <v>84</v>
       </c>
       <c r="T229" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U229">
         <v>2012</v>
@@ -9337,7 +10035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>15</v>
       </c>
@@ -9345,19 +10043,29 @@
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>405</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="K230" s="1"/>
       <c r="L230" t="s">
         <v>80</v>
       </c>
       <c r="N230" t="s">
         <v>104</v>
       </c>
+      <c r="Q230" s="1"/>
+      <c r="S230" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="O1:O230">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:W230">
     <sortCondition ref="D2:D230"/>
   </sortState>
@@ -9381,7 +10089,7 @@
     <col min="12" max="12" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>17</v>
       </c>
@@ -9391,8 +10099,8 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>441</v>
+      <c r="D1" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="E1" t="s">
         <v>72</v>
@@ -9410,13 +10118,13 @@
         <v>72</v>
       </c>
       <c r="J1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K1" t="s">
         <v>442</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>443</v>
-      </c>
-      <c r="L1" t="s">
-        <v>444</v>
       </c>
       <c r="M1">
         <v>1999</v>
@@ -9430,10 +10138,10 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>454</v>
+        <v>447</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
@@ -9448,13 +10156,13 @@
         <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M2">
         <v>2008</v>
@@ -9468,10 +10176,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E3" t="s">
         <v>72</v>
@@ -9489,13 +10197,13 @@
         <v>72</v>
       </c>
       <c r="J3" t="s">
+        <v>500</v>
+      </c>
+      <c r="K3" t="s">
         <v>501</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>502</v>
-      </c>
-      <c r="L3" t="s">
-        <v>503</v>
       </c>
       <c r="M3">
         <v>2009</v>
@@ -9509,10 +10217,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E4" t="s">
         <v>72</v>
@@ -9530,7 +10238,7 @@
         <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K4" t="s">
         <v>150</v>

--- a/Reading_List_further_screening.xlsx
+++ b/Reading_List_further_screening.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="460" windowWidth="17560" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$O$1:$O$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$230</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="604">
   <si>
     <t>Study (R / Q)</t>
   </si>
@@ -539,9 +539,6 @@
     <t>Dyslexia in chinese: Clues from Cognitive Neuropsychology</t>
   </si>
   <si>
-    <t>review: downloaded</t>
-  </si>
-  <si>
     <t>Frequency effects in language processing</t>
   </si>
   <si>
@@ -596,9 +593,6 @@
     <t>Revisiting letter transpositions within and across morphemic boundaries</t>
   </si>
   <si>
-    <t>downloaded (Davies)</t>
-  </si>
-  <si>
     <t>Lexical and semantic age-of-acquisition effects on word naming in Spanish</t>
   </si>
   <si>
@@ -617,9 +611,6 @@
     <t>A normative study of acronyms and acronym naming</t>
   </si>
   <si>
-    <t>downloaded (Woollams)</t>
-  </si>
-  <si>
     <t>Whats in a word? A parametric study of semantic influences on visual word recognition</t>
   </si>
   <si>
@@ -1181,18 +1172,12 @@
     <t>Developmental change is key to understanding primary langauge impairment: the case of phonotactic probability and nonword repetition</t>
   </si>
   <si>
-    <t>Journal of Speech langauge and hearing research</t>
-  </si>
-  <si>
     <t>2013 56 5</t>
   </si>
   <si>
     <t>Children's naming and word finding difficulties: Descriptions and evaluations</t>
   </si>
   <si>
-    <t>review - downloaded</t>
-  </si>
-  <si>
     <t>Category and modality specificity in semantic dementia</t>
   </si>
   <si>
@@ -1307,9 +1292,6 @@
     <t>Differentiating the effects of phonotactic probability and neighbourhood density on vocabulary comprehension and production: A comparison of preschool children with versus without phonological delays</t>
   </si>
   <si>
-    <t>journal of Speech langauge and hearing research</t>
-  </si>
-  <si>
     <t>2010 53 4 933</t>
   </si>
   <si>
@@ -1544,9 +1526,6 @@
     <t>Effects of word frequency and modality on sentence comprehension impairments in people with aphasia</t>
   </si>
   <si>
-    <t>American jouranl of speech-language pathology</t>
-  </si>
-  <si>
     <t>2012, 21 2</t>
   </si>
   <si>
@@ -1682,9 +1661,6 @@
     <t>an abundance of riches: Cross task comparisons of semantic richness effcts in visual word recogntiion</t>
   </si>
   <si>
-    <t>Frontiers in Human Neuroscience</t>
-  </si>
-  <si>
     <t>Yap, Pexman, Hargreaves, Huff</t>
   </si>
   <si>
@@ -1697,9 +1673,6 @@
     <t>Effects of emotional experience in LDT</t>
   </si>
   <si>
-    <t>Frontiers in Psychology</t>
-  </si>
-  <si>
     <t>effects of relative embodiment in lexical and semantic processing of verbs</t>
   </si>
   <si>
@@ -1793,57 +1766,9 @@
     <t>Morphology in word identification: a word-experience model that accounts for morpheme frequency effects</t>
   </si>
   <si>
-    <t>Tracking real-time neural activation of conceptual knowledge using single-trial event-related potentials. Neuropsychologia. https://doi.org/10.1016/j.neuropsychologia.2011.01.003</t>
-  </si>
-  <si>
-    <t>Individual differences in the size of orthographic effects in spoken word recognition: The role of listeners’ orthographic skills. Applied Psycholinguistics. https://doi.org/10.1017/S0142716410000330</t>
-  </si>
-  <si>
-    <t>NoA’s Ark: influence of the number of associates in visual word recognition. Psychonomic Bulletin &amp; Review. https://doi.org/10.3758/PBR.15.6.1072</t>
-  </si>
-  <si>
-    <t>Semantic richness effects in spoken word recognition: A lexical decision and semantic categorization megastudy. Frontiers in Psychology. https://doi.org/10.3389/fpsyg.2016.00976</t>
-  </si>
-  <si>
-    <t>Identifying Nonwords: Effects of Lexical Neighborhoods, Phonotactic Probability, and Listener Characteristics. Language and Speech. https://doi.org/10.1177/0023830912447914</t>
-  </si>
-  <si>
-    <t>Feedback-Consistency Effects in Single-Word Reading. In Single-word reading: Biological and behavioral perspectives. https://doi.org/10.4324/9780203810064</t>
-  </si>
-  <si>
-    <t>Remote semantic memory is impoverished in hippocampal amnesia. Neuropsychologia. https://doi.org/10.1016/j.neuropsychologia.2015.10.017</t>
-  </si>
-  <si>
-    <t>Accentuate the positive: Semantic access in English compounds. Frontiers in Psychology. https://doi.org/10.3389/fpsyg.2013.00203</t>
-  </si>
-  <si>
-    <t>Language and cognition: Effects of stimulus codability, name-word frequency, and age of acquisition on lexical reaction time. Journal of Verbal Learning and Verbal Behavior. https://doi.org/10.1016/S0022-5371(74)80049-6</t>
-  </si>
-  <si>
-    <t>Dynamic self-organization and early lexical development in children. Cognitive Science, 31(4).</t>
-  </si>
-  <si>
-    <t>Does the mean adequately represent reading performance? Evidence from a cross-linguistic study. Frontiers in Psychology. https://doi.org/10.3389/fpsyg.2014.00903</t>
-  </si>
-  <si>
-    <t>Differences in the cognitive demands of word order, plural, and subject-verb agreement constructions. Psychonomic Bulletin &amp; Review. https://doi.org/10.3758/PBR.15.5.980</t>
-  </si>
-  <si>
     <t>Are there word-length effects in the evaluative decision task? | Gibt es wortlängeneffekte in der evaluativen entscheidungsaufgabe? Experimental Psychology, 45(4–1).</t>
   </si>
   <si>
-    <t>There are many ways to be rich: effects of three measures of semantic richness on visual word recognition. Psychonomic Bulletin &amp; Review. https://doi.org/10.3758/PBR.15.1.161</t>
-  </si>
-  <si>
-    <t>Short-Term and Long-Term Effects on Visual Word Recognition. Journal of Experimental Psychology: Learning, Memory, and Cognition. https://doi.org/10.1037/xlm0000191</t>
-  </si>
-  <si>
-    <t>Three studies of predicted gender differences in processes of word reading. Journal of Educational Research. https://doi.org/10.1080/00220671.1987.10885754</t>
-  </si>
-  <si>
-    <t>Comparing naming, lexical decision, and eye fixation times: Word frequency effects and individual differences. Memory and Cognition, 26(6).</t>
-  </si>
-  <si>
     <t>University Country</t>
   </si>
   <si>
@@ -1877,19 +1802,70 @@
     <t>microform</t>
   </si>
   <si>
-    <t>order</t>
-  </si>
-  <si>
     <t>$31.00</t>
   </si>
   <si>
     <t>interlibrary loan</t>
   </si>
   <si>
-    <t>book?</t>
-  </si>
-  <si>
-    <t>journal of speech languge and hearing research Feb 2010</t>
+    <t>available in August Shi2017</t>
+  </si>
+  <si>
+    <t>proquest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accentuate the positive: Semantic access in English compounds. </t>
+  </si>
+  <si>
+    <t>Comparing naming, lexical decision, and eye fixation times: Word frequency effects and individual differences.</t>
+  </si>
+  <si>
+    <t>Differences in the cognitive demands of word order, plural, and subject-verb agreement constructions.</t>
+  </si>
+  <si>
+    <t>Does the mean adequately represent reading performance? Evidence from a cross-linguistic study.</t>
+  </si>
+  <si>
+    <t>Dynamic self-organization and early lexical development in children.</t>
+  </si>
+  <si>
+    <t>Identifying Nonwords: Effects of Lexical Neighborhoods, Phonotactic Probability, and Listener Characteristics.</t>
+  </si>
+  <si>
+    <t>Individual differences in the size of orthographic effects in spoken word recognition: The role of listeners’ orthographic skills.</t>
+  </si>
+  <si>
+    <t>Language and cognition: Effects of stimulus codability, name-word frequency, and age of acquisition on lexical reaction time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoA’s Ark: influence of the number of associates in visual word recognition. </t>
+  </si>
+  <si>
+    <t>Remote semantic memory is impoverished in hippocampal amnesia.</t>
+  </si>
+  <si>
+    <t>Semantic richness effects in spoken word recognition: A lexical decision and semantic categorization megastudy.</t>
+  </si>
+  <si>
+    <t>Short-Term and Long-Term Effects on Visual Word Recognition.</t>
+  </si>
+  <si>
+    <t>There are many ways to be rich: effects of three measures of semantic richness on visual word recognition.</t>
+  </si>
+  <si>
+    <t>Three studies of predicted gender differences in processes of word reading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking real-time neural activation of conceptual knowledge using single-trial event-related potentials. </t>
+  </si>
+  <si>
+    <t>Feedback-Consistency Effects in Single-Word Reading. In Single-word reading (book: single word reading)</t>
+  </si>
+  <si>
+    <t>Book chapter</t>
+  </si>
+  <si>
+    <t>go back website broken</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2001,6 +1977,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2281,16 +2260,15 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q193" sqref="Q193"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D229" sqref="D229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="46.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" hidden="1" customWidth="1"/>
@@ -2299,9 +2277,10 @@
     <col min="9" max="9" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="21.6640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1"/>
     <col min="17" max="17" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.1640625" customWidth="1"/>
     <col min="19" max="19" width="19" style="10" customWidth="1"/>
@@ -2363,7 +2342,7 @@
         <v>48</v>
       </c>
       <c r="T1" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="U1" t="s">
         <v>85</v>
@@ -2372,7 +2351,7 @@
         <v>77</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
@@ -2380,10 +2359,10 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C2" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2395,7 +2374,7 @@
         <v>104</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="X2"/>
     </row>
@@ -2404,7 +2383,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -2419,7 +2398,7 @@
         <v>104</v>
       </c>
       <c r="O3" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="X3"/>
     </row>
@@ -2452,22 +2431,22 @@
         <v>6</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" t="s">
         <v>173</v>
       </c>
-      <c r="R4" t="s">
-        <v>174</v>
-      </c>
       <c r="S4" s="10" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="T4" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U4">
         <v>2016</v>
       </c>
       <c r="W4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="X4"/>
     </row>
@@ -2488,7 +2467,7 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O5" t="s">
         <v>104</v>
@@ -2506,7 +2485,7 @@
         <v>151</v>
       </c>
       <c r="T5" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U5">
         <v>2009</v>
@@ -2524,10 +2503,10 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -2536,7 +2515,7 @@
         <v>104</v>
       </c>
       <c r="O6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="X6"/>
     </row>
@@ -2548,16 +2527,16 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
         <v>104</v>
@@ -2566,16 +2545,16 @@
         <v>6</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="R7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>145</v>
       </c>
       <c r="T7" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U7">
         <v>1997</v>
@@ -2593,7 +2572,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2610,26 +2589,26 @@
         <v>6</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>607</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="R8"/>
       <c r="S8" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U8" s="12">
         <v>1986</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -2637,18 +2616,21 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C9" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="L9" t="s">
         <v>80</v>
       </c>
       <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
         <v>104</v>
       </c>
       <c r="X9"/>
@@ -2664,12 +2646,15 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
       </c>
       <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
         <v>104</v>
       </c>
       <c r="X10"/>
@@ -2682,10 +2667,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2708,20 +2693,20 @@
         <v>72</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="R11"/>
       <c r="S11" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U11" s="12">
         <v>1981</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2736,6 +2721,12 @@
       </c>
       <c r="L12" t="s">
         <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" t="s">
+        <v>104</v>
       </c>
       <c r="X12"/>
     </row>
@@ -2750,7 +2741,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -2759,7 +2750,7 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -2775,32 +2766,32 @@
         <v>6</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="U13" s="12">
         <v>2003</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:24" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E14"/>
@@ -2810,33 +2801,32 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" s="1"/>
-      <c r="L14" t="s">
+      <c r="L14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M14"/>
-      <c r="N14" t="s">
+      <c r="N14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="R14"/>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="T14" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="U14" s="12">
+      <c r="T14" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="U14" s="5">
         <v>1986</v>
       </c>
-      <c r="V14" s="12" t="s">
+      <c r="V14" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2865,6 +2855,9 @@
       <c r="L15" t="s">
         <v>18</v>
       </c>
+      <c r="N15" t="s">
+        <v>104</v>
+      </c>
       <c r="O15" t="s">
         <v>104</v>
       </c>
@@ -2896,10 +2889,10 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L16" t="s">
         <v>80</v>
@@ -2907,8 +2900,11 @@
       <c r="N16" t="s">
         <v>104</v>
       </c>
+      <c r="O16" t="s">
+        <v>104</v>
+      </c>
       <c r="U16" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="X16"/>
     </row>
@@ -2917,18 +2913,21 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C17" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="L17" t="s">
         <v>80</v>
       </c>
       <c r="N17" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" t="s">
         <v>104</v>
       </c>
       <c r="X17"/>
@@ -2938,18 +2937,21 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C18" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
       </c>
       <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
         <v>104</v>
       </c>
       <c r="X18"/>
@@ -2965,7 +2967,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -2974,7 +2976,7 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L19" t="s">
         <v>18</v>
@@ -2990,16 +2992,16 @@
         <v>6</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U19" s="12">
         <v>2007</v>
@@ -3048,7 +3050,7 @@
         <v>119</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U20" s="12">
         <v>2003</v>
@@ -3065,16 +3067,16 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L21" t="s">
         <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O21" t="s">
         <v>104</v>
@@ -3083,23 +3085,23 @@
         <v>72</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R21" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="T21" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U21">
         <v>2013</v>
       </c>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3107,16 +3109,16 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L22" t="s">
         <v>80</v>
       </c>
       <c r="N22" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O22" t="s">
         <v>104</v>
@@ -3125,16 +3127,16 @@
         <v>72</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="R22" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="T22" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U22">
         <v>2012</v>
@@ -3146,22 +3148,25 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C23" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="L23" t="s">
         <v>80</v>
       </c>
       <c r="N23" t="s">
-        <v>542</v>
+        <v>104</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="U23">
         <v>2012</v>
@@ -3173,16 +3178,22 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C24" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L24" t="s">
         <v>80</v>
+      </c>
+      <c r="N24" t="s">
+        <v>104</v>
+      </c>
+      <c r="O24" t="s">
+        <v>104</v>
       </c>
       <c r="X24"/>
     </row>
@@ -3197,13 +3208,13 @@
         <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
         <v>18</v>
       </c>
       <c r="N25" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O25" t="s">
         <v>104</v>
@@ -3212,16 +3223,16 @@
         <v>6</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="R25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="T25" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U25">
         <v>2003</v>
@@ -3236,10 +3247,10 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -3262,16 +3273,16 @@
         <v>72</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="R26" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="S26" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U26" s="12">
         <v>2000</v>
@@ -3285,10 +3296,10 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -3311,14 +3322,14 @@
         <v>72</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="R27"/>
       <c r="S27" s="14" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U27" s="12">
         <v>1980</v>
@@ -3335,7 +3346,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -3358,16 +3369,16 @@
         <v>6</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S28" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U28" s="12">
         <v>2007</v>
@@ -3381,10 +3392,10 @@
         <v>38</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K29" s="13"/>
       <c r="L29" s="12" t="s">
@@ -3400,16 +3411,16 @@
         <v>72</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="S29" s="14" t="s">
         <v>92</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U29" s="12">
         <v>2003</v>
@@ -3424,7 +3435,7 @@
       </c>
       <c r="C30"/>
       <c r="D30" s="1" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -3443,7 +3454,7 @@
         <v>104</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="P30"/>
       <c r="Q30" s="1"/>
@@ -3466,13 +3477,13 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s">
         <v>18</v>
       </c>
       <c r="N31" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O31" t="s">
         <v>104</v>
@@ -3481,16 +3492,16 @@
         <v>6</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="R31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="T31" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U31">
         <v>1999</v>
@@ -3505,10 +3516,10 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -3524,7 +3535,9 @@
       <c r="N32" t="s">
         <v>104</v>
       </c>
-      <c r="O32"/>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
       <c r="P32"/>
       <c r="Q32" s="1"/>
       <c r="R32"/>
@@ -3552,7 +3565,7 @@
         <v>18</v>
       </c>
       <c r="N33" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O33" t="s">
         <v>104</v>
@@ -3585,15 +3598,18 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L34" t="s">
         <v>80</v>
       </c>
       <c r="N34" t="s">
+        <v>104</v>
+      </c>
+      <c r="O34" t="s">
         <v>104</v>
       </c>
       <c r="X34"/>
@@ -3606,10 +3622,10 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -3632,16 +3648,16 @@
         <v>72</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="R35" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="S35" s="14" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U35" s="12">
         <v>1999</v>
@@ -3655,16 +3671,16 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s">
         <v>80</v>
       </c>
       <c r="N36" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O36" t="s">
         <v>104</v>
@@ -3673,13 +3689,13 @@
         <v>104</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="T36" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="U36">
         <v>2006</v>
@@ -3693,10 +3709,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -3719,20 +3735,20 @@
         <v>72</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="R37"/>
       <c r="S37" s="14" t="s">
         <v>52</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U37" s="12">
         <v>1991</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3754,6 +3770,9 @@
       <c r="L38" t="s">
         <v>18</v>
       </c>
+      <c r="N38" t="s">
+        <v>104</v>
+      </c>
       <c r="O38" t="s">
         <v>104</v>
       </c>
@@ -3770,7 +3789,7 @@
         <v>43</v>
       </c>
       <c r="T38" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="V38" t="s">
         <v>18</v>
@@ -3785,10 +3804,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s">
         <v>80</v>
@@ -3796,9 +3815,12 @@
       <c r="N39" t="s">
         <v>104</v>
       </c>
+      <c r="O39" t="s">
+        <v>104</v>
+      </c>
       <c r="X39"/>
     </row>
-    <row r="40" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3806,16 +3828,16 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s">
         <v>18</v>
       </c>
       <c r="N40" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O40" t="s">
         <v>104</v>
@@ -3824,16 +3846,16 @@
         <v>6</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="R40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="T40" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U40">
         <v>2010</v>
@@ -3848,20 +3870,23 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
+        <v>370</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="L41" t="s">
         <v>80</v>
       </c>
       <c r="N41" t="s">
-        <v>378</v>
+        <v>104</v>
+      </c>
+      <c r="O41" t="s">
+        <v>104</v>
       </c>
       <c r="X41"/>
     </row>
-    <row r="42" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3872,13 +3897,13 @@
         <v>29</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L42" t="s">
         <v>18</v>
       </c>
       <c r="N42" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O42" t="s">
         <v>104</v>
@@ -3887,16 +3912,16 @@
         <v>6</v>
       </c>
       <c r="Q42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R42" t="s">
         <v>163</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="S42" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="T42" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U42">
         <v>2000</v>
@@ -3914,13 +3939,19 @@
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L43" t="s">
         <v>18</v>
+      </c>
+      <c r="N43" t="s">
+        <v>104</v>
+      </c>
+      <c r="O43" t="s">
+        <v>104</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3929,18 +3960,21 @@
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C44" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="L44" t="s">
         <v>80</v>
       </c>
       <c r="N44" t="s">
+        <v>104</v>
+      </c>
+      <c r="O44" t="s">
         <v>104</v>
       </c>
       <c r="X44"/>
@@ -3953,15 +3987,18 @@
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s">
         <v>18</v>
       </c>
       <c r="N45" t="s">
+        <v>104</v>
+      </c>
+      <c r="O45" t="s">
         <v>104</v>
       </c>
       <c r="X45"/>
@@ -3977,7 +4014,7 @@
         <v>27</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -3986,13 +4023,13 @@
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L46" t="s">
         <v>80</v>
       </c>
       <c r="M46" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N46" t="s">
         <v>6</v>
@@ -4004,16 +4041,16 @@
         <v>6</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R46" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U46" s="12">
         <v>2009</v>
@@ -4024,18 +4061,21 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C47" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="L47" t="s">
         <v>80</v>
       </c>
       <c r="N47" t="s">
+        <v>104</v>
+      </c>
+      <c r="O47" t="s">
         <v>104</v>
       </c>
       <c r="X47"/>
@@ -4048,10 +4088,10 @@
         <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s">
         <v>18</v>
@@ -4059,20 +4099,23 @@
       <c r="N48" t="s">
         <v>104</v>
       </c>
+      <c r="O48" t="s">
+        <v>104</v>
+      </c>
       <c r="X48"/>
     </row>
-    <row r="49" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" spans="1:24" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>24</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
-        <v>447</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>529</v>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>522</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -4081,32 +4124,32 @@
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49" s="1"/>
-      <c r="L49" t="s">
+      <c r="L49" s="5" t="s">
         <v>80</v>
       </c>
       <c r="M49"/>
-      <c r="N49" t="s">
+      <c r="N49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P49" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O49" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="P49" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="R49" t="s">
-        <v>531</v>
-      </c>
-      <c r="S49" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="T49" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="U49" s="12">
+      <c r="Q49" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="U49" s="5">
         <v>2001</v>
       </c>
     </row>
@@ -4118,19 +4161,22 @@
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s">
         <v>80</v>
       </c>
       <c r="N50" t="s">
-        <v>375</v>
+        <v>104</v>
+      </c>
+      <c r="O50" t="s">
+        <v>104</v>
       </c>
       <c r="U50" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="X50"/>
     </row>
@@ -4142,15 +4188,18 @@
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L51" t="s">
         <v>18</v>
       </c>
       <c r="N51" t="s">
+        <v>104</v>
+      </c>
+      <c r="O51" t="s">
         <v>104</v>
       </c>
       <c r="X51"/>
@@ -4166,12 +4215,15 @@
         <v>29</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L52" t="s">
         <v>18</v>
       </c>
       <c r="N52" t="s">
+        <v>104</v>
+      </c>
+      <c r="O52" t="s">
         <v>104</v>
       </c>
       <c r="X52"/>
@@ -4193,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="N53" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O53" t="s">
         <v>104</v>
@@ -4211,7 +4263,7 @@
         <v>145</v>
       </c>
       <c r="T53" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U53">
         <v>2013</v>
@@ -4221,7 +4273,7 @@
       </c>
       <c r="X53"/>
     </row>
-    <row r="54" spans="1:24" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -4229,13 +4281,19 @@
         <v>37</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L54" t="s">
         <v>18</v>
+      </c>
+      <c r="N54" t="s">
+        <v>104</v>
+      </c>
+      <c r="O54" t="s">
+        <v>104</v>
       </c>
       <c r="X54"/>
     </row>
@@ -4247,19 +4305,22 @@
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s">
         <v>80</v>
       </c>
       <c r="N55" t="s">
-        <v>417</v>
+        <v>104</v>
+      </c>
+      <c r="O55" t="s">
+        <v>104</v>
       </c>
       <c r="U55" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="X55"/>
     </row>
@@ -4268,18 +4329,21 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C56" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L56" t="s">
         <v>80</v>
       </c>
       <c r="N56" t="s">
+        <v>104</v>
+      </c>
+      <c r="O56" t="s">
         <v>104</v>
       </c>
       <c r="X56"/>
@@ -4292,16 +4356,16 @@
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="L57" t="s">
         <v>80</v>
       </c>
       <c r="N57" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O57" t="s">
         <v>104</v>
@@ -4310,23 +4374,23 @@
         <v>72</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="R57" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="T57" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U57">
         <v>2001</v>
       </c>
       <c r="X57"/>
     </row>
-    <row r="58" spans="1:24" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -4344,6 +4408,12 @@
       </c>
       <c r="L58" t="s">
         <v>18</v>
+      </c>
+      <c r="N58" t="s">
+        <v>104</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="X58"/>
     </row>
@@ -4355,10 +4425,10 @@
         <v>38</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="12" t="s">
@@ -4374,16 +4444,16 @@
         <v>72</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="S59" s="14" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U59" s="12">
         <v>1993</v>
@@ -4397,13 +4467,19 @@
         <v>37</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="s">
         <v>18</v>
+      </c>
+      <c r="N60" t="s">
+        <v>104</v>
+      </c>
+      <c r="O60" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="X60"/>
     </row>
@@ -4415,16 +4491,16 @@
         <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L61" t="s">
         <v>18</v>
       </c>
       <c r="N61" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O61" t="s">
         <v>104</v>
@@ -4433,13 +4509,13 @@
         <v>15</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T61" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="U61">
         <v>2006</v>
@@ -4464,6 +4540,9 @@
       <c r="N62" t="s">
         <v>104</v>
       </c>
+      <c r="O62" t="s">
+        <v>104</v>
+      </c>
       <c r="X62"/>
     </row>
     <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
@@ -4471,26 +4550,29 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
+        <v>531</v>
+      </c>
+      <c r="C63" t="s">
+        <v>533</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C63" t="s">
-        <v>540</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="L63" t="s">
         <v>80</v>
       </c>
       <c r="N63" t="s">
-        <v>547</v>
+        <v>104</v>
+      </c>
+      <c r="O63" t="s">
+        <v>104</v>
       </c>
       <c r="U63" s="8">
         <v>42621</v>
       </c>
       <c r="X63"/>
     </row>
-    <row r="64" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8</v>
       </c>
@@ -4498,16 +4580,16 @@
         <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L64" t="s">
         <v>18</v>
       </c>
       <c r="N64" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O64" t="s">
         <v>104</v>
@@ -4516,16 +4598,16 @@
         <v>6</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="R64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S64" s="10" t="s">
         <v>76</v>
       </c>
       <c r="T64" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U64">
         <v>2012</v>
@@ -4537,13 +4619,13 @@
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C65" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" t="s">
@@ -4552,10 +4634,13 @@
       <c r="N65" t="s">
         <v>104</v>
       </c>
+      <c r="O65" t="s">
+        <v>104</v>
+      </c>
       <c r="Q65" s="1"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="1:23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5</v>
       </c>
@@ -4566,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>12</v>
@@ -4575,7 +4660,7 @@
         <v>18</v>
       </c>
       <c r="N66" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O66" t="s">
         <v>104</v>
@@ -4584,22 +4669,22 @@
         <v>6</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="R66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S66" s="10" t="s">
         <v>62</v>
       </c>
       <c r="T66" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U66">
         <v>1997</v>
       </c>
     </row>
-    <row r="67" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -4627,6 +4712,9 @@
       <c r="L67" t="s">
         <v>18</v>
       </c>
+      <c r="N67" t="s">
+        <v>104</v>
+      </c>
       <c r="O67" t="s">
         <v>104</v>
       </c>
@@ -4643,7 +4731,7 @@
         <v>52</v>
       </c>
       <c r="T67" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="V67" t="s">
         <v>18</v>
@@ -4660,22 +4748,25 @@
         <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" t="s">
         <v>80</v>
       </c>
       <c r="N68" t="s">
-        <v>496</v>
+        <v>104</v>
+      </c>
+      <c r="O68" t="s">
+        <v>104</v>
       </c>
       <c r="Q68" s="1"/>
       <c r="S68" s="10"/>
       <c r="U68" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="1:23" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -4686,10 +4777,10 @@
         <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
@@ -4702,7 +4793,9 @@
         <v>80</v>
       </c>
       <c r="M69"/>
-      <c r="N69"/>
+      <c r="N69" t="s">
+        <v>72</v>
+      </c>
       <c r="O69" s="12" t="s">
         <v>80</v>
       </c>
@@ -4710,16 +4803,16 @@
         <v>72</v>
       </c>
       <c r="Q69" s="13" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="S69" s="14" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U69" s="12">
         <v>2014</v>
@@ -4736,7 +4829,7 @@
         <v>29</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
@@ -4759,16 +4852,16 @@
         <v>6</v>
       </c>
       <c r="Q70" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S70" s="14" t="s">
         <v>84</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U70" s="12">
         <v>2013</v>
@@ -4777,7 +4870,7 @@
         <v>6</v>
       </c>
       <c r="W70" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:23" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -4788,10 +4881,10 @@
         <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
@@ -4814,16 +4907,16 @@
         <v>6</v>
       </c>
       <c r="Q71" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="R71" s="12" t="s">
         <v>122</v>
       </c>
       <c r="S71" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U71" s="12">
         <v>2006</v>
@@ -4837,10 +4930,10 @@
         <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" t="s">
@@ -4849,10 +4942,13 @@
       <c r="N72" t="s">
         <v>104</v>
       </c>
+      <c r="O72" t="s">
+        <v>104</v>
+      </c>
       <c r="Q72" s="1"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8</v>
       </c>
@@ -4860,20 +4956,20 @@
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" t="s">
         <v>18</v>
       </c>
       <c r="M73" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N73" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O73" t="s">
         <v>104</v>
@@ -4882,16 +4978,16 @@
         <v>6</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="R73" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="T73" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U73">
         <v>2015</v>
@@ -4908,7 +5004,7 @@
         <v>29</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
@@ -4931,13 +5027,13 @@
         <v>6</v>
       </c>
       <c r="Q74" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="S74" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="S74" s="14" t="s">
-        <v>168</v>
-      </c>
       <c r="T74" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U74" s="12">
         <v>1996</v>
@@ -4954,16 +5050,19 @@
         <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" t="s">
         <v>18</v>
       </c>
       <c r="N75" t="s">
+        <v>104</v>
+      </c>
+      <c r="O75" t="s">
         <v>104</v>
       </c>
       <c r="Q75" s="1"/>
@@ -4977,16 +5076,19 @@
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" t="s">
         <v>18</v>
       </c>
       <c r="N76" t="s">
+        <v>104</v>
+      </c>
+      <c r="O76" t="s">
         <v>104</v>
       </c>
       <c r="Q76" s="1"/>
@@ -5000,36 +5102,55 @@
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" t="s">
         <v>80</v>
       </c>
+      <c r="N77" t="s">
+        <v>104</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="Q77" s="1"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="78" spans="1:23" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
         <v>1</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>584</v>
-      </c>
+      <c r="D78" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
       <c r="K78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L78" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q78" s="1"/>
-      <c r="S78" s="10"/>
+      <c r="L78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78"/>
+      <c r="N78" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q78" s="6"/>
+      <c r="S78" s="11"/>
     </row>
     <row r="79" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -5042,14 +5163,17 @@
         <v>29</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" t="s">
         <v>18</v>
       </c>
       <c r="N79" t="s">
-        <v>161</v>
+        <v>104</v>
+      </c>
+      <c r="O79" t="s">
+        <v>104</v>
       </c>
       <c r="Q79" s="1"/>
       <c r="S79" s="10"/>
@@ -5062,10 +5186,10 @@
         <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" t="s">
@@ -5074,20 +5198,23 @@
       <c r="N80" t="s">
         <v>104</v>
       </c>
+      <c r="O80" t="s">
+        <v>104</v>
+      </c>
       <c r="Q80" s="1"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="81" spans="1:24" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
         <v>2</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="6" t="s">
         <v>130</v>
       </c>
       <c r="E81"/>
@@ -5097,32 +5224,32 @@
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81" s="1"/>
-      <c r="L81" t="s">
+      <c r="L81" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M81"/>
-      <c r="N81" t="s">
+      <c r="N81" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P81" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O81" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P81" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q81" s="13" t="s">
+      <c r="Q81" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="S81" s="14" t="s">
+      <c r="S81" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="T81" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="U81" s="12">
+      <c r="T81" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="U81" s="5">
         <v>1995</v>
       </c>
-      <c r="V81" s="12" t="s">
+      <c r="V81" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5137,7 +5264,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>12</v>
@@ -5148,9 +5275,12 @@
       <c r="N82" t="s">
         <v>104</v>
       </c>
+      <c r="O82" t="s">
+        <v>104</v>
+      </c>
       <c r="X82"/>
     </row>
-    <row r="83" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>21</v>
       </c>
@@ -5158,16 +5288,16 @@
         <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="L83" t="s">
         <v>80</v>
       </c>
       <c r="N83" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O83" t="s">
         <v>104</v>
@@ -5176,16 +5306,16 @@
         <v>72</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="R83" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="S83" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="T83" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U83">
         <v>1999</v>
@@ -5203,7 +5333,7 @@
         <v>29</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L84" t="s">
         <v>18</v>
@@ -5211,9 +5341,12 @@
       <c r="N84" t="s">
         <v>104</v>
       </c>
+      <c r="O84" t="s">
+        <v>104</v>
+      </c>
       <c r="X84"/>
     </row>
-    <row r="85" spans="1:24" s="12" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>12</v>
       </c>
@@ -5221,10 +5354,10 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
@@ -5241,20 +5374,20 @@
         <v>72</v>
       </c>
       <c r="O85" s="12" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="P85" t="s">
         <v>72</v>
       </c>
       <c r="Q85" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="R85"/>
       <c r="S85" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="U85" s="12">
         <v>2008</v>
@@ -5282,9 +5415,12 @@
       <c r="N86" t="s">
         <v>104</v>
       </c>
+      <c r="O86" t="s">
+        <v>104</v>
+      </c>
       <c r="X86"/>
     </row>
-    <row r="87" spans="1:24" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -5292,7 +5428,7 @@
         <v>37</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>19</v>
@@ -5300,9 +5436,15 @@
       <c r="L87" t="s">
         <v>18</v>
       </c>
+      <c r="N87" t="s">
+        <v>104</v>
+      </c>
+      <c r="O87" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="X87"/>
     </row>
-    <row r="88" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -5313,13 +5455,13 @@
         <v>29</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s">
         <v>18</v>
       </c>
       <c r="N88" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O88" t="s">
         <v>104</v>
@@ -5328,16 +5470,16 @@
         <v>6</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="R88" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="S88" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="T88" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U88">
         <v>2012</v>
@@ -5355,12 +5497,15 @@
         <v>29</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L89" t="s">
         <v>18</v>
       </c>
       <c r="N89" t="s">
+        <v>104</v>
+      </c>
+      <c r="O89" t="s">
         <v>104</v>
       </c>
       <c r="X89"/>
@@ -5373,10 +5518,10 @@
         <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>35</v>
@@ -5385,6 +5530,9 @@
         <v>18</v>
       </c>
       <c r="N90" t="s">
+        <v>104</v>
+      </c>
+      <c r="O90" t="s">
         <v>104</v>
       </c>
       <c r="X90"/>
@@ -5397,15 +5545,18 @@
         <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L91" t="s">
         <v>18</v>
       </c>
       <c r="N91" t="s">
+        <v>104</v>
+      </c>
+      <c r="O91" t="s">
         <v>104</v>
       </c>
       <c r="X91"/>
@@ -5415,18 +5566,21 @@
         <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C92" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="L92" t="s">
         <v>80</v>
       </c>
       <c r="N92" t="s">
+        <v>104</v>
+      </c>
+      <c r="O92" t="s">
         <v>104</v>
       </c>
       <c r="X92"/>
@@ -5439,15 +5593,18 @@
         <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L93" t="s">
         <v>18</v>
       </c>
       <c r="N93" t="s">
+        <v>104</v>
+      </c>
+      <c r="O93" t="s">
         <v>104</v>
       </c>
       <c r="X93"/>
@@ -5457,18 +5614,21 @@
         <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C94" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="L94" t="s">
         <v>80</v>
       </c>
       <c r="N94" t="s">
+        <v>104</v>
+      </c>
+      <c r="O94" t="s">
         <v>104</v>
       </c>
       <c r="X94"/>
@@ -5481,15 +5641,18 @@
         <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L95" t="s">
         <v>18</v>
       </c>
       <c r="N95" t="s">
+        <v>104</v>
+      </c>
+      <c r="O95" t="s">
         <v>104</v>
       </c>
       <c r="X95"/>
@@ -5499,20 +5662,26 @@
         <v>57</v>
       </c>
       <c r="B96" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C96" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L96" t="s">
         <v>80</v>
       </c>
+      <c r="N96" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O96" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="X96"/>
     </row>
-    <row r="97" spans="1:22" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -5520,7 +5689,7 @@
         <v>37</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>35</v>
@@ -5528,20 +5697,26 @@
       <c r="L97" t="s">
         <v>18</v>
       </c>
+      <c r="N97" t="s">
+        <v>104</v>
+      </c>
+      <c r="O97" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="Q97" s="1"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="1:22" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="98" spans="1:22" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
         <v>2</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="6" t="s">
         <v>127</v>
       </c>
       <c r="E98"/>
@@ -5551,35 +5726,35 @@
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98" s="1"/>
-      <c r="L98" t="s">
+      <c r="L98" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M98"/>
-      <c r="N98" t="s">
+      <c r="N98" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P98" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O98" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="P98" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q98" s="13" t="s">
+      <c r="Q98" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="R98" t="s">
+      <c r="R98" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="S98" s="14" t="s">
+      <c r="S98" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="T98" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="U98" s="12">
+      <c r="T98" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="U98" s="5">
         <v>2000</v>
       </c>
-      <c r="V98" s="12" t="s">
+      <c r="V98" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5614,6 +5789,9 @@
       <c r="N99" t="s">
         <v>104</v>
       </c>
+      <c r="O99" t="s">
+        <v>104</v>
+      </c>
       <c r="Q99" s="1"/>
       <c r="S99" s="10"/>
     </row>
@@ -5625,16 +5803,19 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" t="s">
         <v>80</v>
       </c>
       <c r="N100" t="s">
+        <v>104</v>
+      </c>
+      <c r="O100" t="s">
         <v>104</v>
       </c>
       <c r="Q100" s="1"/>
@@ -5645,27 +5826,30 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C101" t="s">
+        <v>533</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" t="s">
         <v>80</v>
       </c>
       <c r="N101" t="s">
-        <v>542</v>
+        <v>104</v>
+      </c>
+      <c r="O101" t="s">
+        <v>104</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="S101" s="10"/>
       <c r="U101" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:22" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -5676,10 +5860,10 @@
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
@@ -5702,16 +5886,16 @@
         <v>72</v>
       </c>
       <c r="Q102" s="13" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="R102" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="S102" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U102" s="12">
         <v>1997</v>
@@ -5728,14 +5912,17 @@
         <v>29</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" t="s">
         <v>18</v>
       </c>
       <c r="N103" t="s">
-        <v>176</v>
+        <v>104</v>
+      </c>
+      <c r="O103" t="s">
+        <v>104</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="S103" s="10"/>
@@ -5748,16 +5935,19 @@
         <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" t="s">
         <v>80</v>
       </c>
       <c r="N104" t="s">
+        <v>104</v>
+      </c>
+      <c r="O104" t="s">
         <v>104</v>
       </c>
       <c r="Q104" s="1"/>
@@ -5771,16 +5961,19 @@
         <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" t="s">
         <v>80</v>
       </c>
       <c r="N105" t="s">
+        <v>104</v>
+      </c>
+      <c r="O105" t="s">
         <v>104</v>
       </c>
       <c r="Q105" s="1"/>
@@ -5808,24 +6001,30 @@
       <c r="N106" t="s">
         <v>104</v>
       </c>
+      <c r="O106" t="s">
+        <v>104</v>
+      </c>
       <c r="Q106" s="1"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="1:22" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>587</v>
+      <c r="D107" s="18" t="s">
+        <v>593</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L107" t="s">
         <v>18</v>
+      </c>
+      <c r="N107" t="s">
+        <v>104</v>
       </c>
       <c r="Q107" s="1"/>
       <c r="S107" s="10"/>
@@ -5838,10 +6037,10 @@
         <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
@@ -5864,16 +6063,16 @@
         <v>72</v>
       </c>
       <c r="Q108" s="13" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="R108" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="S108" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T108" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U108" s="12">
         <v>2012</v>
@@ -5887,16 +6086,19 @@
         <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" t="s">
         <v>18</v>
       </c>
       <c r="N109" t="s">
+        <v>104</v>
+      </c>
+      <c r="O109" t="s">
         <v>104</v>
       </c>
       <c r="Q109" s="1"/>
@@ -5913,14 +6115,14 @@
         <v>29</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" t="s">
         <v>18</v>
       </c>
       <c r="N110" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O110" t="s">
         <v>104</v>
@@ -5929,22 +6131,22 @@
         <v>6</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R110" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S110" s="10" t="s">
         <v>92</v>
       </c>
       <c r="T110" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U110">
         <v>2004</v>
       </c>
     </row>
-    <row r="111" spans="1:22" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" s="12" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>15</v>
       </c>
@@ -5952,10 +6154,10 @@
         <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E111"/>
       <c r="F111"/>
@@ -5969,25 +6171,25 @@
       </c>
       <c r="M111"/>
       <c r="N111" t="s">
-        <v>72</v>
-      </c>
-      <c r="O111" s="12" t="s">
-        <v>611</v>
+        <v>104</v>
+      </c>
+      <c r="O111" t="s">
+        <v>104</v>
       </c>
       <c r="P111" t="s">
         <v>72</v>
       </c>
       <c r="Q111" s="13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="R111" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="S111" s="14" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="T111" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U111" s="12">
         <v>2007</v>
@@ -6001,10 +6203,10 @@
         <v>38</v>
       </c>
       <c r="C112" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E112"/>
       <c r="F112"/>
@@ -6027,16 +6229,16 @@
         <v>6</v>
       </c>
       <c r="Q112" s="13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R112" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S112" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="T112" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U112" s="12">
         <v>2004</v>
@@ -6050,16 +6252,19 @@
         <v>38</v>
       </c>
       <c r="C113" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" t="s">
         <v>80</v>
       </c>
       <c r="N113" t="s">
+        <v>104</v>
+      </c>
+      <c r="O113" t="s">
         <v>104</v>
       </c>
       <c r="Q113" s="1"/>
@@ -6076,14 +6281,17 @@
         <v>29</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" t="s">
         <v>18</v>
       </c>
       <c r="N114" t="s">
-        <v>180</v>
+        <v>104</v>
+      </c>
+      <c r="O114" t="s">
+        <v>104</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="S114" s="10"/>
@@ -6099,13 +6307,16 @@
         <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" t="s">
         <v>80</v>
       </c>
       <c r="N115" t="s">
+        <v>104</v>
+      </c>
+      <c r="O115" t="s">
         <v>104</v>
       </c>
       <c r="Q115" s="1"/>
@@ -6122,7 +6333,7 @@
         <v>29</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K116" s="1"/>
       <c r="L116" t="s">
@@ -6131,10 +6342,13 @@
       <c r="N116" t="s">
         <v>104</v>
       </c>
+      <c r="O116" t="s">
+        <v>104</v>
+      </c>
       <c r="Q116" s="1"/>
       <c r="S116" s="10"/>
     </row>
-    <row r="117" spans="1:22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3</v>
       </c>
@@ -6152,7 +6366,7 @@
         <v>18</v>
       </c>
       <c r="N117" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O117" t="s">
         <v>104</v>
@@ -6170,7 +6384,7 @@
         <v>67</v>
       </c>
       <c r="T117" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U117">
         <v>2006</v>
@@ -6184,19 +6398,22 @@
         <v>48</v>
       </c>
       <c r="B118" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C118" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" t="s">
         <v>80</v>
       </c>
       <c r="N118" t="s">
+        <v>104</v>
+      </c>
+      <c r="O118" t="s">
         <v>104</v>
       </c>
       <c r="Q118" s="1"/>
@@ -6210,16 +6427,19 @@
         <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" t="s">
         <v>18</v>
       </c>
       <c r="N119" t="s">
+        <v>104</v>
+      </c>
+      <c r="O119" t="s">
         <v>104</v>
       </c>
       <c r="Q119" s="1"/>
@@ -6233,16 +6453,19 @@
         <v>38</v>
       </c>
       <c r="C120" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" t="s">
         <v>80</v>
       </c>
       <c r="N120" t="s">
+        <v>104</v>
+      </c>
+      <c r="O120" t="s">
         <v>104</v>
       </c>
       <c r="Q120" s="1"/>
@@ -6259,16 +6482,16 @@
         <v>27</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L121" t="s">
         <v>18</v>
       </c>
       <c r="N121" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O121" t="s">
         <v>104</v>
@@ -6277,13 +6500,13 @@
         <v>6</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S121" s="10" t="s">
         <v>145</v>
       </c>
       <c r="T121" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U121">
         <v>2007</v>
@@ -6300,7 +6523,7 @@
         <v>29</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E122"/>
       <c r="F122"/>
@@ -6323,16 +6546,16 @@
         <v>6</v>
       </c>
       <c r="Q122" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R122" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S122" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="T122" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U122" s="12">
         <v>1998</v>
@@ -6346,7 +6569,7 @@
         <v>38</v>
       </c>
       <c r="C123" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>136</v>
@@ -6356,6 +6579,9 @@
         <v>18</v>
       </c>
       <c r="N123" t="s">
+        <v>104</v>
+      </c>
+      <c r="O123" t="s">
         <v>104</v>
       </c>
       <c r="Q123" s="1"/>
@@ -6366,13 +6592,13 @@
         <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C124" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" t="s">
@@ -6381,10 +6607,13 @@
       <c r="N124" t="s">
         <v>104</v>
       </c>
+      <c r="O124" t="s">
+        <v>104</v>
+      </c>
       <c r="Q124" s="1"/>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="1:22" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" s="5" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10</v>
       </c>
@@ -6392,10 +6621,10 @@
         <v>38</v>
       </c>
       <c r="C125" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E125"/>
       <c r="F125"/>
@@ -6408,8 +6637,8 @@
         <v>18</v>
       </c>
       <c r="M125"/>
-      <c r="N125" t="s">
-        <v>6</v>
+      <c r="N125" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="O125" s="5" t="s">
         <v>104</v>
@@ -6418,7 +6647,7 @@
         <v>6</v>
       </c>
       <c r="Q125" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="R125" s="5" t="s">
         <v>83</v>
@@ -6427,7 +6656,7 @@
         <v>84</v>
       </c>
       <c r="T125" s="5" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U125" s="5">
         <v>2002</v>
@@ -6441,16 +6670,19 @@
         <v>38</v>
       </c>
       <c r="C126" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" t="s">
         <v>18</v>
       </c>
       <c r="N126" t="s">
+        <v>104</v>
+      </c>
+      <c r="O126" t="s">
         <v>104</v>
       </c>
       <c r="Q126" s="1"/>
@@ -6464,22 +6696,25 @@
         <v>38</v>
       </c>
       <c r="C127" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K127" s="1"/>
       <c r="L127" t="s">
         <v>80</v>
       </c>
       <c r="N127" t="s">
-        <v>375</v>
+        <v>104</v>
+      </c>
+      <c r="O127" t="s">
+        <v>104</v>
       </c>
       <c r="Q127" s="1"/>
       <c r="S127" s="10"/>
       <c r="U127" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -6490,10 +6725,10 @@
         <v>38</v>
       </c>
       <c r="C128" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" t="s">
@@ -6503,28 +6738,28 @@
         <v>6</v>
       </c>
       <c r="O128" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="P128" t="s">
         <v>72</v>
       </c>
       <c r="Q128" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="R128" t="s">
+        <v>270</v>
+      </c>
+      <c r="S128" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="R128" t="s">
-        <v>273</v>
-      </c>
-      <c r="S128" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="T128" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U128">
         <v>2015</v>
       </c>
     </row>
-    <row r="129" spans="1:24" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7</v>
       </c>
@@ -6532,10 +6767,10 @@
         <v>38</v>
       </c>
       <c r="C129" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E129"/>
       <c r="F129"/>
@@ -6549,7 +6784,7 @@
       </c>
       <c r="M129"/>
       <c r="N129" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O129" s="5" t="s">
         <v>104</v>
@@ -6558,32 +6793,32 @@
         <v>6</v>
       </c>
       <c r="Q129" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S129" s="11" t="s">
         <v>52</v>
       </c>
       <c r="T129" s="5" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U129" s="5">
         <v>2012</v>
       </c>
     </row>
-    <row r="130" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="130" spans="1:24" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
         <v>1</v>
       </c>
-      <c r="B130" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B130" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D130" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E130"/>
@@ -6595,37 +6830,39 @@
       <c r="K130" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L130" t="s">
+      <c r="L130" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M130"/>
-      <c r="N130"/>
-      <c r="O130" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P130" t="s">
+      <c r="N130" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O130" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P130" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q130" s="13" t="s">
+      <c r="Q130" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R130" s="12" t="s">
+      <c r="R130" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="S130" s="14" t="s">
+      <c r="S130" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="T130" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="V130" s="12" t="s">
+      <c r="T130" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="V130" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W130" s="12" t="s">
+      <c r="W130" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1</v>
       </c>
@@ -6633,13 +6870,19 @@
         <v>37</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L131" t="s">
         <v>18</v>
+      </c>
+      <c r="N131" t="s">
+        <v>104</v>
+      </c>
+      <c r="O131" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="X131"/>
     </row>
@@ -6654,7 +6897,7 @@
         <v>27</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E132"/>
       <c r="F132"/>
@@ -6663,7 +6906,7 @@
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L132" t="s">
         <v>18</v>
@@ -6679,14 +6922,14 @@
         <v>6</v>
       </c>
       <c r="Q132" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="R132"/>
       <c r="S132" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T132" s="12" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="U132" s="12">
         <v>2005</v>
@@ -6701,16 +6944,16 @@
         <v>38</v>
       </c>
       <c r="C133" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L133" t="s">
         <v>80</v>
       </c>
       <c r="N133" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O133" t="s">
         <v>104</v>
@@ -6719,65 +6962,65 @@
         <v>104</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="R133" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="S133" s="10" t="s">
         <v>92</v>
       </c>
       <c r="T133" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U133">
         <v>1997</v>
       </c>
       <c r="X133"/>
     </row>
-    <row r="134" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A134">
+    <row r="134" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="12">
         <v>12</v>
       </c>
-      <c r="B134" t="s">
-        <v>38</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B134" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D134" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="K134" s="13"/>
+      <c r="L134" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N134" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O134" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P134" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q134" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="R134" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="S134" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="L134" t="s">
-        <v>80</v>
-      </c>
-      <c r="N134" t="s">
-        <v>72</v>
-      </c>
-      <c r="O134" t="s">
-        <v>610</v>
-      </c>
-      <c r="P134" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q134" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="R134" t="s">
-        <v>360</v>
-      </c>
-      <c r="S134" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="T134" t="s">
-        <v>598</v>
-      </c>
-      <c r="U134">
+      <c r="T134" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="U134" s="12">
         <v>2013</v>
       </c>
-      <c r="X134"/>
-    </row>
-    <row r="135" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -6796,6 +7039,9 @@
       <c r="L135" t="s">
         <v>18</v>
       </c>
+      <c r="N135" t="s">
+        <v>104</v>
+      </c>
       <c r="O135" t="s">
         <v>104</v>
       </c>
@@ -6812,7 +7058,7 @@
         <v>76</v>
       </c>
       <c r="T135" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="V135" t="s">
         <v>18</v>
@@ -6832,10 +7078,10 @@
         <v>38</v>
       </c>
       <c r="C136" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L136" t="s">
         <v>80</v>
@@ -6843,9 +7089,12 @@
       <c r="N136" t="s">
         <v>104</v>
       </c>
+      <c r="O136" t="s">
+        <v>104</v>
+      </c>
       <c r="X136"/>
     </row>
-    <row r="137" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>6</v>
       </c>
@@ -6856,16 +7105,16 @@
         <v>27</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L137" t="s">
         <v>18</v>
       </c>
       <c r="N137" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O137" t="s">
         <v>104</v>
@@ -6874,16 +7123,16 @@
         <v>6</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="R137" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S137" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="T137" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U137">
         <v>2013</v>
@@ -6898,16 +7147,16 @@
         <v>38</v>
       </c>
       <c r="C138" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L138" t="s">
         <v>80</v>
       </c>
       <c r="N138" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O138" t="s">
         <v>104</v>
@@ -6916,13 +7165,13 @@
         <v>72</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="S138" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="T138" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U138">
         <v>2004</v>
@@ -6940,7 +7189,7 @@
         <v>10</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E139"/>
       <c r="F139"/>
@@ -6963,22 +7212,22 @@
         <v>72</v>
       </c>
       <c r="Q139" s="13" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="R139" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="S139" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="T139" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U139" s="12">
         <v>2003</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10</v>
       </c>
@@ -6986,16 +7235,16 @@
         <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L140" t="s">
         <v>18</v>
       </c>
       <c r="N140" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O140" t="s">
         <v>104</v>
@@ -7004,16 +7253,16 @@
         <v>72</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="R140" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S140" s="10" t="s">
         <v>99</v>
       </c>
       <c r="T140" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U140">
         <v>2011</v>
@@ -7028,16 +7277,16 @@
         <v>38</v>
       </c>
       <c r="C141" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L141" t="s">
         <v>18</v>
       </c>
       <c r="N141" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O141" t="s">
         <v>104</v>
@@ -7046,23 +7295,23 @@
         <v>6</v>
       </c>
       <c r="Q141" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="R141" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S141" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="T141" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U141">
         <v>2012</v>
       </c>
       <c r="X141"/>
     </row>
-    <row r="142" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>15</v>
       </c>
@@ -7070,16 +7319,16 @@
         <v>38</v>
       </c>
       <c r="C142" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L142" t="s">
         <v>80</v>
       </c>
       <c r="N142" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O142" t="s">
         <v>104</v>
@@ -7088,23 +7337,23 @@
         <v>72</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="R142" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="S142" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="T142" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U142">
         <v>2011</v>
       </c>
       <c r="X142"/>
     </row>
-    <row r="143" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>22</v>
       </c>
@@ -7112,16 +7361,16 @@
         <v>38</v>
       </c>
       <c r="C143" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L143" t="s">
         <v>80</v>
       </c>
       <c r="N143" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O143" t="s">
         <v>104</v>
@@ -7130,16 +7379,16 @@
         <v>72</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="R143" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="S143" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="T143" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U143">
         <v>2006</v>
@@ -7163,7 +7412,7 @@
         <v>18</v>
       </c>
       <c r="N144" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O144" t="s">
         <v>104</v>
@@ -7188,7 +7437,7 @@
       </c>
       <c r="X144"/>
     </row>
-    <row r="145" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>5</v>
       </c>
@@ -7199,7 +7448,7 @@
         <v>12</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>12</v>
@@ -7208,7 +7457,7 @@
         <v>18</v>
       </c>
       <c r="N145" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O145" t="s">
         <v>104</v>
@@ -7217,22 +7466,22 @@
         <v>6</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R145" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S145" s="10" t="s">
         <v>62</v>
       </c>
       <c r="T145" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U145">
         <v>1990</v>
       </c>
     </row>
-    <row r="146" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3</v>
       </c>
@@ -7250,7 +7499,7 @@
         <v>18</v>
       </c>
       <c r="N146" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O146" t="s">
         <v>104</v>
@@ -7268,7 +7517,7 @@
         <v>99</v>
       </c>
       <c r="T146" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U146">
         <v>2008</v>
@@ -7285,10 +7534,10 @@
         <v>38</v>
       </c>
       <c r="C147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E147"/>
       <c r="F147"/>
@@ -7311,16 +7560,16 @@
         <v>6</v>
       </c>
       <c r="Q147" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="R147" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S147" s="14" t="s">
         <v>52</v>
       </c>
       <c r="T147" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U147" s="12">
         <v>2012</v>
@@ -7334,16 +7583,19 @@
         <v>38</v>
       </c>
       <c r="C148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" t="s">
         <v>18</v>
       </c>
       <c r="N148" t="s">
+        <v>104</v>
+      </c>
+      <c r="O148" t="s">
         <v>104</v>
       </c>
       <c r="Q148" s="1"/>
@@ -7357,16 +7609,19 @@
         <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" t="s">
         <v>80</v>
       </c>
       <c r="N149" t="s">
+        <v>104</v>
+      </c>
+      <c r="O149" t="s">
         <v>104</v>
       </c>
       <c r="Q149" s="1"/>
@@ -7380,16 +7635,19 @@
         <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" t="s">
         <v>80</v>
       </c>
       <c r="N150" t="s">
+        <v>104</v>
+      </c>
+      <c r="O150" t="s">
         <v>104</v>
       </c>
       <c r="Q150" s="1"/>
@@ -7403,16 +7661,19 @@
         <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K151" s="1"/>
       <c r="L151" t="s">
         <v>80</v>
       </c>
       <c r="N151" t="s">
+        <v>104</v>
+      </c>
+      <c r="O151" t="s">
         <v>104</v>
       </c>
       <c r="Q151" s="1"/>
@@ -7426,16 +7687,19 @@
         <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K152" s="1"/>
       <c r="L152" t="s">
         <v>18</v>
       </c>
       <c r="N152" t="s">
+        <v>104</v>
+      </c>
+      <c r="O152" t="s">
         <v>104</v>
       </c>
       <c r="Q152" s="1"/>
@@ -7452,7 +7716,7 @@
         <v>12</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>12</v>
@@ -7461,6 +7725,9 @@
         <v>18</v>
       </c>
       <c r="N153" t="s">
+        <v>104</v>
+      </c>
+      <c r="O153" t="s">
         <v>104</v>
       </c>
       <c r="Q153" s="1"/>
@@ -7474,41 +7741,41 @@
         <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" t="s">
         <v>80</v>
       </c>
       <c r="M154" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N154" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O154" t="s">
-        <v>606</v>
+        <v>104</v>
       </c>
       <c r="P154" t="s">
         <v>72</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="S154" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="T154" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U154">
         <v>1987</v>
       </c>
     </row>
-    <row r="155" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>15</v>
       </c>
@@ -7516,17 +7783,17 @@
         <v>38</v>
       </c>
       <c r="C155" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K155" s="1"/>
       <c r="L155" t="s">
         <v>80</v>
       </c>
       <c r="N155" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O155" t="s">
         <v>104</v>
@@ -7535,16 +7802,16 @@
         <v>72</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="R155" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S155" s="10" t="s">
         <v>111</v>
       </c>
       <c r="T155" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U155">
         <v>2010</v>
@@ -7555,19 +7822,22 @@
         <v>53</v>
       </c>
       <c r="B156" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C156" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="K156" s="1"/>
       <c r="L156" t="s">
         <v>80</v>
       </c>
       <c r="N156" t="s">
+        <v>104</v>
+      </c>
+      <c r="O156" t="s">
         <v>104</v>
       </c>
       <c r="Q156" s="1"/>
@@ -7581,16 +7851,19 @@
         <v>38</v>
       </c>
       <c r="C157" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K157" s="1"/>
       <c r="L157" t="s">
         <v>80</v>
       </c>
       <c r="N157" t="s">
+        <v>104</v>
+      </c>
+      <c r="O157" t="s">
         <v>104</v>
       </c>
       <c r="Q157" s="1"/>
@@ -7639,7 +7912,7 @@
         <v>107</v>
       </c>
       <c r="T158" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U158" s="12">
         <v>2008</v>
@@ -7648,10 +7921,10 @@
         <v>6</v>
       </c>
       <c r="W158" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -7659,7 +7932,7 @@
         <v>37</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E159" t="s">
         <v>16</v>
@@ -7675,6 +7948,12 @@
       </c>
       <c r="L159" t="s">
         <v>18</v>
+      </c>
+      <c r="N159" t="s">
+        <v>104</v>
+      </c>
+      <c r="O159" t="s">
+        <v>104</v>
       </c>
       <c r="Q159" s="1"/>
       <c r="S159" s="10"/>
@@ -7690,13 +7969,16 @@
         <v>29</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K160" s="1"/>
       <c r="L160" t="s">
         <v>18</v>
       </c>
       <c r="N160" t="s">
+        <v>104</v>
+      </c>
+      <c r="O160" t="s">
         <v>104</v>
       </c>
       <c r="Q160" s="1"/>
@@ -7707,19 +7989,22 @@
         <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C161" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="K161" s="1"/>
       <c r="L161" t="s">
         <v>80</v>
       </c>
       <c r="N161" t="s">
+        <v>104</v>
+      </c>
+      <c r="O161" t="s">
         <v>104</v>
       </c>
       <c r="Q161" s="1"/>
@@ -7733,10 +8018,10 @@
         <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E162"/>
       <c r="F162"/>
@@ -7759,16 +8044,16 @@
         <v>72</v>
       </c>
       <c r="Q162" s="13" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="R162" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="S162" s="14" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="T162" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U162" s="12">
         <v>2006</v>
@@ -7785,7 +8070,7 @@
         <v>10</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E163"/>
       <c r="F163"/>
@@ -7808,22 +8093,22 @@
         <v>72</v>
       </c>
       <c r="Q163" s="13" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="R163" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="S163" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="T163" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U163" s="12">
         <v>2001</v>
       </c>
     </row>
-    <row r="164" spans="1:21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>15</v>
       </c>
@@ -7831,17 +8116,17 @@
         <v>38</v>
       </c>
       <c r="C164" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K164" s="1"/>
       <c r="L164" t="s">
         <v>80</v>
       </c>
       <c r="N164" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O164" t="s">
         <v>104</v>
@@ -7850,16 +8135,16 @@
         <v>72</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="R164" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="S164" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="T164" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U164">
         <v>2012</v>
@@ -7876,7 +8161,7 @@
         <v>29</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E165"/>
       <c r="F165"/>
@@ -7899,16 +8184,16 @@
         <v>6</v>
       </c>
       <c r="Q165" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="R165" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S165" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="T165" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U165" s="12">
         <v>1998</v>
@@ -7919,19 +8204,22 @@
         <v>32</v>
       </c>
       <c r="B166" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C166" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="K166" s="1"/>
       <c r="L166" t="s">
         <v>80</v>
       </c>
       <c r="N166" t="s">
+        <v>104</v>
+      </c>
+      <c r="O166" t="s">
         <v>104</v>
       </c>
       <c r="Q166" s="1"/>
@@ -7948,19 +8236,22 @@
         <v>29</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K167" s="1"/>
       <c r="L167" t="s">
         <v>18</v>
       </c>
       <c r="N167" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="O167" t="s">
+        <v>104</v>
       </c>
       <c r="Q167" s="1"/>
       <c r="S167" s="10"/>
     </row>
-    <row r="168" spans="1:21" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -7968,13 +8259,19 @@
         <v>37</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L168" t="s">
         <v>18</v>
+      </c>
+      <c r="N168" t="s">
+        <v>104</v>
+      </c>
+      <c r="O168" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="Q168" s="1"/>
       <c r="S168" s="10"/>
@@ -7987,10 +8284,10 @@
         <v>38</v>
       </c>
       <c r="C169" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E169"/>
       <c r="F169"/>
@@ -8004,7 +8301,7 @@
       </c>
       <c r="M169"/>
       <c r="N169" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O169" s="12" t="s">
         <v>18</v>
@@ -8013,22 +8310,22 @@
         <v>6</v>
       </c>
       <c r="Q169" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R169" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S169" s="14" t="s">
         <v>71</v>
       </c>
       <c r="T169" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U169" s="12">
         <v>1999</v>
       </c>
     </row>
-    <row r="170" spans="1:21" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -8036,11 +8333,17 @@
         <v>37</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K170" s="1"/>
       <c r="L170" t="s">
         <v>18</v>
+      </c>
+      <c r="N170" t="s">
+        <v>104</v>
+      </c>
+      <c r="O170" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="Q170" s="1"/>
       <c r="S170" s="10"/>
@@ -8053,16 +8356,19 @@
         <v>38</v>
       </c>
       <c r="C171" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K171" s="1"/>
       <c r="L171" t="s">
         <v>18</v>
       </c>
       <c r="N171" t="s">
+        <v>104</v>
+      </c>
+      <c r="O171" t="s">
         <v>104</v>
       </c>
       <c r="Q171" s="1"/>
@@ -8076,16 +8382,19 @@
         <v>38</v>
       </c>
       <c r="C172" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K172" s="1"/>
       <c r="L172" t="s">
         <v>18</v>
       </c>
       <c r="N172" t="s">
+        <v>104</v>
+      </c>
+      <c r="O172" t="s">
         <v>104</v>
       </c>
       <c r="Q172" s="1"/>
@@ -8099,10 +8408,10 @@
         <v>38</v>
       </c>
       <c r="C173" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E173"/>
       <c r="F173"/>
@@ -8125,16 +8434,16 @@
         <v>72</v>
       </c>
       <c r="Q173" s="13" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="R173" s="12" t="s">
         <v>61</v>
       </c>
       <c r="S173" s="14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="T173" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U173" s="12">
         <v>1998</v>
@@ -8148,17 +8457,17 @@
         <v>38</v>
       </c>
       <c r="C174" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K174" s="1"/>
       <c r="L174" t="s">
         <v>80</v>
       </c>
       <c r="N174" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O174" t="s">
         <v>104</v>
@@ -8167,16 +8476,16 @@
         <v>72</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="R174" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="S174" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="T174" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U174">
         <v>1998</v>
@@ -8193,14 +8502,14 @@
         <v>29</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K175" s="1"/>
       <c r="L175" t="s">
         <v>18</v>
       </c>
       <c r="N175" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O175" t="s">
         <v>104</v>
@@ -8209,16 +8518,16 @@
         <v>6</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S175" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="T175" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U175">
         <v>2002</v>
@@ -8232,16 +8541,19 @@
         <v>38</v>
       </c>
       <c r="C176" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K176" s="1"/>
       <c r="L176" t="s">
         <v>80</v>
       </c>
       <c r="N176" t="s">
+        <v>104</v>
+      </c>
+      <c r="O176" t="s">
         <v>104</v>
       </c>
       <c r="Q176" s="1"/>
@@ -8255,15 +8567,18 @@
         <v>38</v>
       </c>
       <c r="C177" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L177" t="s">
         <v>18</v>
       </c>
       <c r="N177" t="s">
+        <v>104</v>
+      </c>
+      <c r="O177" t="s">
         <v>104</v>
       </c>
       <c r="X177"/>
@@ -8276,10 +8591,10 @@
         <v>38</v>
       </c>
       <c r="C178" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L178" t="s">
         <v>80</v>
@@ -8287,9 +8602,12 @@
       <c r="N178" t="s">
         <v>104</v>
       </c>
+      <c r="O178" t="s">
+        <v>104</v>
+      </c>
       <c r="X178"/>
     </row>
-    <row r="179" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>21</v>
       </c>
@@ -8297,16 +8615,16 @@
         <v>38</v>
       </c>
       <c r="C179" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="L179" t="s">
         <v>80</v>
       </c>
       <c r="N179" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O179" t="s">
         <v>104</v>
@@ -8315,16 +8633,16 @@
         <v>72</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="R179" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="S179" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="T179" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U179">
         <v>2014</v>
@@ -8342,31 +8660,31 @@
         <v>29</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L180" t="s">
         <v>18</v>
       </c>
       <c r="N180" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O180" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="P180" t="s">
         <v>6</v>
       </c>
       <c r="Q180" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R180" t="s">
         <v>170</v>
-      </c>
-      <c r="R180" t="s">
-        <v>171</v>
       </c>
       <c r="S180" s="10" t="s">
         <v>145</v>
       </c>
       <c r="T180" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U180">
         <v>1993</v>
@@ -8384,16 +8702,16 @@
         <v>38</v>
       </c>
       <c r="C181" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L181" t="s">
         <v>80</v>
       </c>
       <c r="N181" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O181" t="s">
         <v>104</v>
@@ -8402,13 +8720,13 @@
         <v>72</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="S181" s="10" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="T181" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U181">
         <v>2009</v>
@@ -8426,7 +8744,7 @@
         <v>10</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L182" t="s">
         <v>80</v>
@@ -8434,19 +8752,22 @@
       <c r="N182" t="s">
         <v>104</v>
       </c>
+      <c r="O182" t="s">
+        <v>104</v>
+      </c>
       <c r="X182"/>
     </row>
-    <row r="183" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A183">
+    <row r="183" spans="1:24" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
         <v>2</v>
       </c>
-      <c r="B183" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B183" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D183" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E183"/>
@@ -8456,33 +8777,35 @@
       <c r="I183"/>
       <c r="J183"/>
       <c r="K183" s="1"/>
-      <c r="L183" t="s">
+      <c r="L183" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M183"/>
-      <c r="N183"/>
-      <c r="O183" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P183" t="s">
+      <c r="N183" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="O183" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P183" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q183" s="13" t="s">
+      <c r="Q183" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R183" s="12" t="s">
+      <c r="R183" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="S183" s="14" t="s">
+      <c r="S183" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="T183" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="U183" s="12">
+      <c r="T183" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="U183" s="5">
         <v>2010</v>
       </c>
-      <c r="V183" s="12" t="s">
+      <c r="V183" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8497,13 +8820,13 @@
         <v>29</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L184" t="s">
         <v>18</v>
       </c>
       <c r="N184" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O184" t="s">
         <v>104</v>
@@ -8512,16 +8835,16 @@
         <v>6</v>
       </c>
       <c r="Q184" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R184" t="s">
         <v>173</v>
       </c>
-      <c r="R184" t="s">
+      <c r="S184" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="S184" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="T184" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U184">
         <v>2011</v>
@@ -8536,10 +8859,10 @@
         <v>38</v>
       </c>
       <c r="C185" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E185"/>
       <c r="F185"/>
@@ -8562,13 +8885,13 @@
         <v>72</v>
       </c>
       <c r="Q185" s="13" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="S185" s="14" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="T185" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U185" s="12">
         <v>1977</v>
@@ -8582,10 +8905,10 @@
         <v>38</v>
       </c>
       <c r="C186" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E186"/>
       <c r="F186"/>
@@ -8608,13 +8931,13 @@
         <v>72</v>
       </c>
       <c r="Q186" s="13" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="S186" s="14" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="T186" s="12" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U186" s="12">
         <v>1985</v>
@@ -8628,15 +8951,18 @@
         <v>38</v>
       </c>
       <c r="C187" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L187" t="s">
         <v>80</v>
       </c>
       <c r="N187" t="s">
+        <v>104</v>
+      </c>
+      <c r="O187" t="s">
         <v>104</v>
       </c>
       <c r="X187"/>
@@ -8649,10 +8975,10 @@
         <v>38</v>
       </c>
       <c r="C188" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L188" t="s">
         <v>18</v>
@@ -8660,20 +8986,23 @@
       <c r="N188" t="s">
         <v>104</v>
       </c>
+      <c r="O188" t="s">
+        <v>104</v>
+      </c>
       <c r="X188"/>
     </row>
-    <row r="189" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A189">
+    <row r="189" spans="1:24" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
         <v>7</v>
       </c>
-      <c r="B189" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C189" t="s">
-        <v>290</v>
-      </c>
-      <c r="D189" s="13" t="s">
-        <v>289</v>
+      <c r="B189" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="E189"/>
       <c r="F189"/>
@@ -8682,32 +9011,32 @@
       <c r="I189"/>
       <c r="J189"/>
       <c r="K189" s="1"/>
-      <c r="L189" t="s">
+      <c r="L189" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M189"/>
-      <c r="N189" t="s">
+      <c r="N189" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O189" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P189" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O189" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P189" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q189" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="R189" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="S189" s="14" t="s">
+      <c r="Q189" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="R189" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="S189" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T189" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="U189" s="12">
+      <c r="T189" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="U189" s="5">
         <v>1993</v>
       </c>
     </row>
@@ -8719,18 +9048,21 @@
         <v>38</v>
       </c>
       <c r="C190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L190" t="s">
         <v>18</v>
       </c>
       <c r="M190" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N190" t="s">
+        <v>104</v>
+      </c>
+      <c r="O190" t="s">
         <v>104</v>
       </c>
       <c r="X190"/>
@@ -8752,6 +9084,9 @@
         <v>18</v>
       </c>
       <c r="N191" t="s">
+        <v>104</v>
+      </c>
+      <c r="O191" t="s">
         <v>104</v>
       </c>
       <c r="X191"/>
@@ -8782,7 +9117,9 @@
         <v>18</v>
       </c>
       <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
+      <c r="N192" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="O192" s="12" t="s">
         <v>18</v>
       </c>
@@ -8799,53 +9136,62 @@
         <v>56</v>
       </c>
       <c r="T192" s="12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="193" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A193">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
         <v>5</v>
       </c>
-      <c r="B193" t="s">
-        <v>38</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="B193" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="D193" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="H193"/>
+      <c r="I193"/>
+      <c r="J193"/>
       <c r="K193" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L193" t="s">
-        <v>18</v>
-      </c>
-      <c r="N193" t="s">
+      <c r="L193" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M193"/>
+      <c r="N193" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O193" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P193" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O193" t="s">
-        <v>18</v>
-      </c>
-      <c r="P193" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q193" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="R193" t="s">
-        <v>198</v>
-      </c>
-      <c r="S193" s="10" t="s">
+      <c r="Q193" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="R193" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S193" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="T193" t="s">
-        <v>598</v>
-      </c>
-      <c r="U193">
+      <c r="T193" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="U193" s="5">
         <v>2015</v>
       </c>
-      <c r="X193"/>
+      <c r="V193" s="5" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
@@ -8866,9 +9212,12 @@
       <c r="N194" t="s">
         <v>104</v>
       </c>
+      <c r="O194" t="s">
+        <v>104</v>
+      </c>
       <c r="X194"/>
     </row>
-    <row r="195" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>14</v>
       </c>
@@ -8876,34 +9225,34 @@
         <v>38</v>
       </c>
       <c r="C195" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L195" t="s">
         <v>80</v>
       </c>
       <c r="N195" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O195" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P195" t="s">
         <v>72</v>
       </c>
       <c r="Q195" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="R195" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S195" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T195" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U195">
         <v>2009</v>
@@ -8918,16 +9267,22 @@
         <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L196" t="s">
         <v>80</v>
       </c>
       <c r="M196" t="s">
         <v>36</v>
+      </c>
+      <c r="N196" t="s">
+        <v>104</v>
+      </c>
+      <c r="O196" t="s">
+        <v>104</v>
       </c>
       <c r="X196"/>
     </row>
@@ -8939,10 +9294,10 @@
         <v>38</v>
       </c>
       <c r="C197" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="L197" t="s">
         <v>80</v>
@@ -8951,6 +9306,9 @@
         <v>11</v>
       </c>
       <c r="N197" t="s">
+        <v>104</v>
+      </c>
+      <c r="O197" t="s">
         <v>104</v>
       </c>
       <c r="X197"/>
@@ -8974,60 +9332,69 @@
       <c r="N198" t="s">
         <v>104</v>
       </c>
+      <c r="O198" t="s">
+        <v>104</v>
+      </c>
       <c r="X198"/>
     </row>
-    <row r="199" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="13" t="s">
         <v>116</v>
       </c>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
       <c r="K199" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L199" t="s">
         <v>18</v>
       </c>
+      <c r="M199"/>
       <c r="N199" t="s">
         <v>6</v>
       </c>
-      <c r="O199" t="s">
+      <c r="O199" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P199" t="s">
         <v>6</v>
       </c>
-      <c r="Q199" s="1" t="s">
+      <c r="Q199" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="R199" t="s">
+      <c r="R199" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="S199" s="10" t="s">
+      <c r="S199" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="T199" t="s">
-        <v>598</v>
-      </c>
-      <c r="U199">
+      <c r="T199" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="U199" s="12">
         <v>2005</v>
       </c>
-      <c r="V199" t="s">
+      <c r="V199" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="W199" t="s">
-        <v>233</v>
-      </c>
-      <c r="X199"/>
-    </row>
-    <row r="200" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+      <c r="W199" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -9053,9 +9420,11 @@
         <v>18</v>
       </c>
       <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
+      <c r="N200" t="s">
+        <v>104</v>
+      </c>
       <c r="O200" s="5" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P200" s="5" t="s">
         <v>6</v>
@@ -9070,9 +9439,11 @@
         <v>67</v>
       </c>
       <c r="T200" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="U200" s="5"/>
+        <v>573</v>
+      </c>
+      <c r="U200" s="5">
+        <v>2009</v>
+      </c>
       <c r="V200" s="5" t="s">
         <v>18</v>
       </c>
@@ -9089,16 +9460,16 @@
         <v>38</v>
       </c>
       <c r="C201" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L201" t="s">
         <v>80</v>
       </c>
       <c r="N201" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O201" t="s">
         <v>104</v>
@@ -9107,299 +9478,346 @@
         <v>72</v>
       </c>
       <c r="Q201" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="R201" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="S201" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="T201" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="U201">
         <v>2012</v>
       </c>
       <c r="X201"/>
     </row>
-    <row r="202" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A202">
+    <row r="202" spans="1:24" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
         <v>22</v>
       </c>
-      <c r="B202" t="s">
-        <v>38</v>
-      </c>
-      <c r="C202" t="s">
-        <v>447</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="L202" t="s">
+      <c r="B202" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="5" t="s">
         <v>80</v>
       </c>
       <c r="M202" t="s">
-        <v>260</v>
-      </c>
-      <c r="O202" t="s">
-        <v>80</v>
-      </c>
-      <c r="P202" t="s">
+        <v>257</v>
+      </c>
+      <c r="N202" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O202" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P202" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Q202" s="1" t="s">
-        <v>488</v>
-      </c>
+      <c r="Q202" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="S202" s="11"/>
       <c r="T202" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="U202">
+        <v>573</v>
+      </c>
+      <c r="U202" s="5">
         <v>1985</v>
       </c>
-      <c r="X202"/>
-    </row>
-    <row r="203" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="13" t="s">
         <v>123</v>
       </c>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203" s="1"/>
       <c r="L203" t="s">
         <v>18</v>
       </c>
+      <c r="M203"/>
       <c r="N203" t="s">
         <v>6</v>
       </c>
-      <c r="O203" t="s">
+      <c r="O203" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P203" t="s">
         <v>6</v>
       </c>
-      <c r="Q203" s="1" t="s">
+      <c r="Q203" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R203" t="s">
+      <c r="R203" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="S203" s="10" t="s">
+      <c r="S203" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="T203" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="U203">
+      <c r="T203" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="U203" s="12">
         <v>2001</v>
       </c>
-      <c r="V203" t="s">
-        <v>80</v>
-      </c>
-      <c r="X203"/>
-    </row>
-    <row r="204" spans="1:24" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="V203" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A204" s="12">
         <v>24</v>
       </c>
-      <c r="B204" t="s">
-        <v>38</v>
-      </c>
-      <c r="C204" t="s">
-        <v>447</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="L204" t="s">
-        <v>80</v>
-      </c>
-      <c r="N204" t="s">
+      <c r="B204" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="H204"/>
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M204"/>
+      <c r="N204" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O204" t="s">
-        <v>606</v>
-      </c>
-      <c r="P204" t="s">
+      <c r="O204" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="P204" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="Q204" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="S204" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="T204" t="s">
-        <v>597</v>
-      </c>
-      <c r="U204">
+      <c r="Q204" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="S204" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="T204" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="U204" s="12">
         <v>1987</v>
       </c>
-      <c r="X204"/>
-    </row>
-    <row r="205" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A205">
+    </row>
+    <row r="205" spans="1:24" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
         <v>6</v>
       </c>
-      <c r="B205" t="s">
-        <v>38</v>
-      </c>
-      <c r="C205" t="s">
+      <c r="B205" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C205" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="D205" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
       <c r="K205" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L205" t="s">
-        <v>18</v>
-      </c>
-      <c r="N205" t="s">
+        <v>267</v>
+      </c>
+      <c r="L205" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M205"/>
+      <c r="N205" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O205" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P205" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O205" t="s">
-        <v>18</v>
-      </c>
-      <c r="P205" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q205" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="R205" t="s">
-        <v>264</v>
-      </c>
-      <c r="S205" s="10" t="s">
-        <v>206</v>
+      <c r="Q205" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="R205" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="S205" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="T205" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="U205">
+        <v>573</v>
+      </c>
+      <c r="U205" s="5">
         <v>2004</v>
       </c>
-      <c r="X205"/>
     </row>
     <row r="206" spans="1:24" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>32</v>
       </c>
       <c r="B206" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C206" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="L206" t="s">
         <v>80</v>
       </c>
-      <c r="N206" t="s">
+      <c r="N206" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O206" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q206" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="Q206" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="U206" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="X206"/>
     </row>
-    <row r="207" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>32</v>
       </c>
-      <c r="B207" t="s">
-        <v>538</v>
+      <c r="B207" s="12" t="s">
+        <v>531</v>
       </c>
       <c r="C207" t="s">
-        <v>540</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>557</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="D207" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207"/>
+      <c r="H207"/>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207" s="1"/>
       <c r="L207" t="s">
         <v>80</v>
       </c>
+      <c r="M207"/>
       <c r="N207" t="s">
         <v>72</v>
       </c>
-      <c r="O207" t="s">
-        <v>80</v>
+      <c r="O207" s="12" t="s">
+        <v>585</v>
       </c>
       <c r="P207" t="s">
         <v>72</v>
       </c>
-      <c r="Q207" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="R207" t="s">
-        <v>560</v>
-      </c>
-      <c r="S207" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="T207" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="U207">
+      <c r="Q207" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="R207" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="S207" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="T207" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="U207" s="12">
         <v>2015</v>
       </c>
-      <c r="X207"/>
-    </row>
-    <row r="208" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:24" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>13</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>373</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208" s="1"/>
       <c r="L208" t="s">
         <v>80</v>
       </c>
+      <c r="M208"/>
       <c r="N208" t="s">
         <v>72</v>
       </c>
-      <c r="O208" t="s">
+      <c r="O208" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P208" t="s">
         <v>72</v>
       </c>
-      <c r="Q208" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="R208" t="s">
-        <v>388</v>
-      </c>
-      <c r="S208" s="10" t="s">
+      <c r="Q208" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="R208" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="S208" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="T208" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="U208">
+      <c r="T208" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="U208" s="12">
         <v>1996</v>
       </c>
-      <c r="X208"/>
-    </row>
-    <row r="209" spans="1:23" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1</v>
       </c>
@@ -9407,7 +9825,7 @@
         <v>37</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="G209" t="s">
         <v>21</v>
@@ -9418,10 +9836,16 @@
       <c r="L209" t="s">
         <v>18</v>
       </c>
+      <c r="N209" t="s">
+        <v>104</v>
+      </c>
+      <c r="O209" t="s">
+        <v>104</v>
+      </c>
       <c r="Q209" s="1"/>
       <c r="S209" s="10"/>
     </row>
-    <row r="210" spans="1:23" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
@@ -9429,7 +9853,7 @@
         <v>37</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K210" s="1" t="s">
         <v>34</v>
@@ -9437,10 +9861,16 @@
       <c r="L210" t="s">
         <v>18</v>
       </c>
+      <c r="N210" t="s">
+        <v>104</v>
+      </c>
+      <c r="O210" t="s">
+        <v>104</v>
+      </c>
       <c r="Q210" s="1"/>
       <c r="S210" s="10"/>
     </row>
-    <row r="211" spans="1:23" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1</v>
       </c>
@@ -9448,7 +9878,7 @@
         <v>37</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>29</v>
@@ -9456,10 +9886,16 @@
       <c r="L211" t="s">
         <v>18</v>
       </c>
+      <c r="N211" t="s">
+        <v>104</v>
+      </c>
+      <c r="O211" t="s">
+        <v>104</v>
+      </c>
       <c r="Q211" s="1"/>
       <c r="S211" s="10"/>
     </row>
-    <row r="212" spans="1:23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>12</v>
       </c>
@@ -9467,35 +9903,35 @@
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K212" s="1"/>
       <c r="L212" t="s">
         <v>80</v>
       </c>
       <c r="N212" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O212" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="P212" t="s">
         <v>72</v>
       </c>
       <c r="Q212" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="R212" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S212" s="10" t="s">
         <v>92</v>
       </c>
       <c r="T212" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="U212">
         <v>2004</v>
@@ -9509,10 +9945,10 @@
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K213" s="1"/>
       <c r="L213" t="s">
@@ -9521,48 +9957,58 @@
       <c r="N213" t="s">
         <v>104</v>
       </c>
+      <c r="O213" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="Q213" s="1"/>
       <c r="S213" s="10"/>
     </row>
-    <row r="214" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214">
+    <row r="214" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
         <v>10</v>
       </c>
-      <c r="B214" t="s">
-        <v>38</v>
-      </c>
-      <c r="C214" t="s">
-        <v>291</v>
-      </c>
-      <c r="D214" s="7" t="s">
+      <c r="B214" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E214"/>
+      <c r="F214"/>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214"/>
+      <c r="J214"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M214"/>
+      <c r="N214" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O214" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P214" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q214" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="R214" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="S214" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="K214" s="1"/>
-      <c r="L214" t="s">
-        <v>18</v>
-      </c>
-      <c r="N214" t="s">
-        <v>6</v>
-      </c>
-      <c r="O214" t="s">
-        <v>18</v>
-      </c>
-      <c r="P214" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q214" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="R214" t="s">
-        <v>331</v>
-      </c>
-      <c r="S214" s="10" t="s">
-        <v>332</v>
-      </c>
       <c r="T214" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="U214">
+        <v>573</v>
+      </c>
+      <c r="U214" s="5">
         <v>2009</v>
       </c>
     </row>
@@ -9574,16 +10020,19 @@
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K215" s="1"/>
       <c r="L215" t="s">
         <v>80</v>
       </c>
       <c r="N215" t="s">
+        <v>104</v>
+      </c>
+      <c r="O215" s="5" t="s">
         <v>104</v>
       </c>
       <c r="Q215" s="1"/>
@@ -9600,7 +10049,7 @@
         <v>29</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K216" s="1"/>
       <c r="L216" t="s">
@@ -9609,45 +10058,55 @@
       <c r="N216" t="s">
         <v>104</v>
       </c>
+      <c r="O216" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="Q216" s="1"/>
       <c r="S216" s="10"/>
     </row>
-    <row r="217" spans="1:23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>17</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
         <v>10</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>444</v>
-      </c>
+      <c r="D217" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217"/>
+      <c r="H217"/>
+      <c r="I217"/>
+      <c r="J217"/>
       <c r="K217" s="1"/>
       <c r="L217" t="s">
         <v>80</v>
       </c>
+      <c r="M217"/>
       <c r="N217" t="s">
         <v>72</v>
       </c>
-      <c r="O217" t="s">
+      <c r="O217" s="12" t="s">
         <v>80</v>
       </c>
       <c r="P217" t="s">
         <v>72</v>
       </c>
-      <c r="Q217" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="S217" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="T217" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="U217">
+      <c r="Q217" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="S217" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="T217" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="U217" s="12">
         <v>1984</v>
       </c>
     </row>
@@ -9659,10 +10118,10 @@
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K218" s="1"/>
       <c r="L218" t="s">
@@ -9671,48 +10130,58 @@
       <c r="N218" t="s">
         <v>104</v>
       </c>
+      <c r="O218" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="Q218" s="1"/>
       <c r="S218" s="10"/>
     </row>
-    <row r="219" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>4</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="D219" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219"/>
+      <c r="H219"/>
+      <c r="I219"/>
+      <c r="J219"/>
       <c r="K219" s="1"/>
       <c r="L219" t="s">
         <v>18</v>
       </c>
+      <c r="M219"/>
       <c r="N219" t="s">
         <v>6</v>
       </c>
-      <c r="O219" t="s">
+      <c r="O219" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P219" t="s">
         <v>6</v>
       </c>
-      <c r="Q219" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="R219" t="s">
-        <v>198</v>
-      </c>
-      <c r="S219" s="10" t="s">
+      <c r="Q219" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="R219" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="S219" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="T219" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="U219">
+      <c r="T219" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="U219" s="12">
         <v>2007</v>
       </c>
     </row>
@@ -9727,14 +10196,17 @@
         <v>29</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K220" s="1"/>
       <c r="L220" t="s">
         <v>18</v>
       </c>
       <c r="N220" t="s">
-        <v>187</v>
+        <v>104</v>
+      </c>
+      <c r="O220" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="Q220" s="1"/>
       <c r="S220" s="10"/>
@@ -9744,13 +10216,13 @@
         <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C221" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="K221" s="1"/>
       <c r="L221" t="s">
@@ -9759,10 +10231,13 @@
       <c r="N221" t="s">
         <v>104</v>
       </c>
+      <c r="O221" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="Q221" s="1"/>
       <c r="S221" s="10"/>
     </row>
-    <row r="222" spans="1:23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>7</v>
       </c>
@@ -9770,35 +10245,35 @@
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K222" s="1"/>
       <c r="L222" t="s">
         <v>18</v>
       </c>
       <c r="N222" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="O222" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P222" t="s">
         <v>72</v>
       </c>
       <c r="Q222" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="R222" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S222" s="10" t="s">
         <v>111</v>
       </c>
       <c r="T222" s="5" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U222">
         <v>2014</v>
@@ -9815,7 +10290,7 @@
         <v>10</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K223" s="1"/>
       <c r="L223" t="s">
@@ -9824,20 +10299,23 @@
       <c r="N223" t="s">
         <v>104</v>
       </c>
+      <c r="O223" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="Q223" s="1"/>
       <c r="S223" s="10"/>
     </row>
-    <row r="224" spans="1:23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E224" t="s">
@@ -9849,34 +10327,41 @@
       <c r="G224" t="s">
         <v>58</v>
       </c>
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224"/>
       <c r="K224" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L224" t="s">
         <v>18</v>
       </c>
-      <c r="O224" t="s">
+      <c r="M224"/>
+      <c r="N224" t="s">
+        <v>72</v>
+      </c>
+      <c r="O224" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P224" t="s">
         <v>6</v>
       </c>
-      <c r="Q224" s="1" t="s">
+      <c r="Q224" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="R224" t="s">
+      <c r="R224" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="S224" s="10" t="s">
+      <c r="S224" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="T224" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="V224" t="s">
-        <v>18</v>
-      </c>
-      <c r="W224" t="s">
+      <c r="T224" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="V224" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="W224" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9888,16 +10373,19 @@
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K225" s="1"/>
       <c r="L225" t="s">
         <v>80</v>
       </c>
       <c r="N225" t="s">
+        <v>104</v>
+      </c>
+      <c r="O225" s="5" t="s">
         <v>104</v>
       </c>
       <c r="Q225" s="1"/>
@@ -9911,10 +10399,10 @@
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K226" s="1"/>
       <c r="L226" t="s">
@@ -9923,10 +10411,13 @@
       <c r="N226" t="s">
         <v>104</v>
       </c>
+      <c r="O226" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="Q226" s="1"/>
       <c r="S226" s="10"/>
     </row>
-    <row r="227" spans="1:22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:22" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2</v>
       </c>
@@ -9943,8 +10434,11 @@
       <c r="L227" t="s">
         <v>18</v>
       </c>
+      <c r="N227" t="s">
+        <v>104</v>
+      </c>
       <c r="O227" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="P227" t="s">
         <v>6</v>
@@ -9959,7 +10453,7 @@
         <v>99</v>
       </c>
       <c r="T227" s="5" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="U227">
         <v>2010</v>
@@ -9976,10 +10470,10 @@
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K228" s="1"/>
       <c r="L228" t="s">
@@ -9988,50 +10482,63 @@
       <c r="N228" t="s">
         <v>104</v>
       </c>
+      <c r="O228" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="Q228" s="1"/>
       <c r="S228" s="10"/>
     </row>
-    <row r="229" spans="1:22" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:22" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="13" t="s">
         <v>86</v>
       </c>
+      <c r="E229"/>
+      <c r="F229"/>
+      <c r="G229"/>
+      <c r="H229"/>
+      <c r="I229"/>
+      <c r="J229"/>
       <c r="K229" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L229" t="s">
         <v>18</v>
       </c>
-      <c r="O229" t="s">
+      <c r="M229"/>
+      <c r="N229" t="s">
+        <v>72</v>
+      </c>
+      <c r="O229" s="12" t="s">
         <v>18</v>
       </c>
       <c r="P229" t="s">
         <v>6</v>
       </c>
-      <c r="Q229" s="1" t="s">
+      <c r="Q229" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="R229" t="s">
+      <c r="R229" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="S229" s="10" t="s">
+      <c r="S229" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="T229" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="U229">
+      <c r="T229" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="U229" s="12">
         <v>2012</v>
       </c>
-      <c r="V229" t="s">
+      <c r="V229" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10043,10 +10550,10 @@
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K230" s="1"/>
       <c r="L230" t="s">
@@ -10055,14 +10562,17 @@
       <c r="N230" t="s">
         <v>104</v>
       </c>
+      <c r="O230" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="Q230" s="1"/>
       <c r="S230" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="O1:O230">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:X230">
+    <filterColumn colId="13">
       <filters>
-        <filter val="Y"/>
+        <filter val="N"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10100,7 +10610,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E1" t="s">
         <v>72</v>
@@ -10118,13 +10628,13 @@
         <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M1">
         <v>1999</v>
@@ -10138,10 +10648,10 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
@@ -10156,13 +10666,13 @@
         <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M2">
         <v>2008</v>
@@ -10176,10 +10686,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E3" t="s">
         <v>72</v>
@@ -10197,13 +10707,13 @@
         <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M3">
         <v>2009</v>
@@ -10217,10 +10727,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E4" t="s">
         <v>72</v>
@@ -10238,7 +10748,7 @@
         <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="K4" t="s">
         <v>150</v>
